--- a/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590BE14E-4957-4528-A8B3-1BE6007972F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F4ABA9-DB10-426F-87E7-1CC85FF55E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="5868" windowWidth="28296" windowHeight="16008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -99,19 +99,19 @@
     <t>EnemyRateOfFireMax</t>
   </si>
   <si>
-    <t>PlayerMissileDamage</t>
+    <t>maxPlayerHP</t>
   </si>
   <si>
-    <t>StarCoinCost</t>
+    <t>playerMissileDamage</t>
   </si>
   <si>
-    <t>MAX_PLAYER_HP</t>
+    <t>powerupDuration</t>
   </si>
   <si>
-    <t>PowerupDuration</t>
+    <t>shieldDuration</t>
   </si>
   <si>
-    <t>ShieldDuration</t>
+    <t>starCoinCost</t>
   </si>
 </sst>
 </file>
@@ -678,10 +678,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -983,7 +979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,19 +998,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>8</v>

--- a/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F4ABA9-DB10-426F-87E7-1CC85FF55E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7266A06E-897F-43A3-B474-238077A7EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="5868" windowWidth="28296" windowHeight="16008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15144" yWindow="2508" windowWidth="28296" windowHeight="21108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>BasePlayerHP</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>starCoinCost</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -979,7 +982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>

--- a/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7266A06E-897F-43A3-B474-238077A7EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE87B5-FD0B-4A99-8D69-DB1525175D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15144" yWindow="2508" windowWidth="28296" windowHeight="21108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>BasePlayerHP</t>
   </si>
@@ -978,11 +978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354C71D-EF32-43C5-977C-A8EFCEACE8B3}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,12 +991,9 @@
     <col min="3" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1015,41 +1012,8 @@
       <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1068,41 +1032,8 @@
       <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1111,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:G18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C3:F18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -1126,48 +1057,13 @@
         <f t="shared" si="0"/>
         <v>5.0505050505050502</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>10.90909090909091</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K18" si="1">(K$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
-        <v>5.1515151515151514</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-      <c r="M3">
-        <v>-1</v>
-      </c>
-      <c r="N3">
-        <v>-1</v>
-      </c>
-      <c r="O3">
-        <v>-1</v>
-      </c>
-      <c r="P3">
-        <v>-1</v>
-      </c>
-      <c r="Q3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B5" si="2">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B4:B5" si="1">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
         <v>3</v>
       </c>
       <c r="C4">
@@ -1186,48 +1082,13 @@
         <f t="shared" si="0"/>
         <v>5.1010101010101012</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>11.818181818181818</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>5.3030303030303028</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4">
-        <v>-1</v>
-      </c>
-      <c r="N4">
-        <v>-1</v>
-      </c>
-      <c r="O4">
-        <v>-1</v>
-      </c>
-      <c r="P4">
-        <v>-1</v>
-      </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C5">
@@ -1246,48 +1107,13 @@
         <f t="shared" si="0"/>
         <v>5.1515151515151514</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>12.727272727272727</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>5.454545454545455</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-      <c r="N5">
-        <v>-1</v>
-      </c>
-      <c r="O5">
-        <v>-1</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6" si="3">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B6" si="2">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>5</v>
       </c>
       <c r="C6">
@@ -1306,48 +1132,13 @@
         <f t="shared" si="0"/>
         <v>5.2020202020202024</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>13.636363636363637</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>5.6060606060606064</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
-      </c>
-      <c r="O6">
-        <v>-1</v>
-      </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
-      <c r="Q6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B67" si="4">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B7:B67" si="3">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>6</v>
       </c>
       <c r="C7">
@@ -1366,48 +1157,13 @@
         <f t="shared" si="0"/>
         <v>5.2525252525252526</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>14.545454545454545</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>5.7575757575757578</v>
-      </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
-        <v>-1</v>
-      </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C8">
@@ -1426,48 +1182,13 @@
         <f t="shared" si="0"/>
         <v>5.3030303030303028</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>15.454545454545455</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>5.9090909090909092</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8">
-        <v>-1</v>
-      </c>
-      <c r="O8">
-        <v>-1</v>
-      </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C9">
@@ -1486,48 +1207,13 @@
         <f t="shared" si="0"/>
         <v>5.3535353535353538</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>16.363636363636363</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>6.0606060606060606</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="N9">
-        <v>-1</v>
-      </c>
-      <c r="O9">
-        <v>-1</v>
-      </c>
-      <c r="P9">
-        <v>-1</v>
-      </c>
-      <c r="Q9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C10">
@@ -1546,48 +1232,13 @@
         <f t="shared" si="0"/>
         <v>5.404040404040404</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>17.272727272727273</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>6.2121212121212119</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
-        <v>-1</v>
-      </c>
-      <c r="P10">
-        <v>-1</v>
-      </c>
-      <c r="Q10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C11">
@@ -1606,48 +1257,13 @@
         <f t="shared" si="0"/>
         <v>5.454545454545455</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>18.18181818181818</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>6.3636363636363633</v>
-      </c>
-      <c r="L11">
-        <v>-1</v>
-      </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="N11">
-        <v>-1</v>
-      </c>
-      <c r="O11">
-        <v>-1</v>
-      </c>
-      <c r="P11">
-        <v>-1</v>
-      </c>
-      <c r="Q11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C12">
@@ -1666,48 +1282,13 @@
         <f t="shared" si="0"/>
         <v>5.5050505050505052</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>19.09090909090909</v>
-      </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-      <c r="J12">
-        <v>-1</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>6.5151515151515156</v>
-      </c>
-      <c r="L12">
-        <v>-1</v>
-      </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="N12">
-        <v>-1</v>
-      </c>
-      <c r="O12">
-        <v>-1</v>
-      </c>
-      <c r="P12">
-        <v>-1</v>
-      </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C13">
@@ -1726,48 +1307,13 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>-1</v>
-      </c>
-      <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13">
-        <v>-1</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="L13">
-        <v>-1</v>
-      </c>
-      <c r="M13">
-        <v>-1</v>
-      </c>
-      <c r="N13">
-        <v>-1</v>
-      </c>
-      <c r="O13">
-        <v>-1</v>
-      </c>
-      <c r="P13">
-        <v>-1</v>
-      </c>
-      <c r="Q13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C14">
@@ -1786,48 +1332,13 @@
         <f t="shared" si="0"/>
         <v>5.6060606060606064</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>20.90909090909091</v>
-      </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
-      </c>
-      <c r="J14">
-        <v>-1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>6.8181818181818183</v>
-      </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-      <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14">
-        <v>-1</v>
-      </c>
-      <c r="O14">
-        <v>-1</v>
-      </c>
-      <c r="P14">
-        <v>-1</v>
-      </c>
-      <c r="Q14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14.000000000000002</v>
       </c>
       <c r="C15">
@@ -1846,48 +1357,13 @@
         <f t="shared" si="0"/>
         <v>5.6565656565656566</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>21.81818181818182</v>
-      </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>6.9696969696969697</v>
-      </c>
-      <c r="L15">
-        <v>-1</v>
-      </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15">
-        <v>-1</v>
-      </c>
-      <c r="O15">
-        <v>-1</v>
-      </c>
-      <c r="P15">
-        <v>-1</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C16">
@@ -1906,48 +1382,13 @@
         <f t="shared" si="0"/>
         <v>5.7070707070707067</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>22.727272727272727</v>
-      </c>
-      <c r="H16">
-        <v>-1</v>
-      </c>
-      <c r="I16">
-        <v>-1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>7.1212121212121211</v>
-      </c>
-      <c r="L16">
-        <v>-1</v>
-      </c>
-      <c r="M16">
-        <v>-1</v>
-      </c>
-      <c r="N16">
-        <v>-1</v>
-      </c>
-      <c r="O16">
-        <v>-1</v>
-      </c>
-      <c r="P16">
-        <v>-1</v>
-      </c>
-      <c r="Q16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C17">
@@ -1966,48 +1407,13 @@
         <f t="shared" si="0"/>
         <v>5.7575757575757578</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>23.636363636363637</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>-1</v>
-      </c>
-      <c r="J17">
-        <v>-1</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>7.2727272727272734</v>
-      </c>
-      <c r="L17">
-        <v>-1</v>
-      </c>
-      <c r="M17">
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <v>-1</v>
-      </c>
-      <c r="P17">
-        <v>-1</v>
-      </c>
-      <c r="Q17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C18">
@@ -2026,4963 +1432,2058 @@
         <f t="shared" si="0"/>
         <v>5.808080808080808</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>24.545454545454547</v>
-      </c>
-      <c r="H18">
-        <v>-1</v>
-      </c>
-      <c r="I18">
-        <v>-1</v>
-      </c>
-      <c r="J18">
-        <v>-1</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>7.4242424242424239</v>
-      </c>
-      <c r="L18">
-        <v>-1</v>
-      </c>
-      <c r="M18">
-        <v>-1</v>
-      </c>
-      <c r="N18">
-        <v>-1</v>
-      </c>
-      <c r="O18">
-        <v>-1</v>
-      </c>
-      <c r="P18">
-        <v>-1</v>
-      </c>
-      <c r="Q18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D46" si="5">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C19:D46" si="4">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
         <v>18</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75.757575757575751</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ref="E19:E82" si="6">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>5.8585858585858581</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ref="F19:F82" si="7">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <f t="shared" ref="F19:F82" si="6">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
         <v>5.8585858585858581</v>
       </c>
-      <c r="G19">
-        <f t="shared" ref="G19:G82" si="8">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
-        <v>25.454545454545453</v>
-      </c>
-      <c r="H19">
-        <v>-1</v>
-      </c>
-      <c r="I19">
-        <v>-1</v>
-      </c>
-      <c r="J19">
-        <v>-1</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K82" si="9">(K$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
-        <v>7.5757575757575761</v>
-      </c>
-      <c r="L19">
-        <v>-1</v>
-      </c>
-      <c r="M19">
-        <v>-1</v>
-      </c>
-      <c r="N19">
-        <v>-1</v>
-      </c>
-      <c r="O19">
-        <v>-1</v>
-      </c>
-      <c r="P19">
-        <v>-1</v>
-      </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77.27272727272728</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.9090909090909092</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.9090909090909092</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="8"/>
-        <v>26.363636363636363</v>
-      </c>
-      <c r="H20">
-        <v>-1</v>
-      </c>
-      <c r="I20">
-        <v>-1</v>
-      </c>
-      <c r="J20">
-        <v>-1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="9"/>
-        <v>7.7272727272727275</v>
-      </c>
-      <c r="L20">
-        <v>-1</v>
-      </c>
-      <c r="M20">
-        <v>-1</v>
-      </c>
-      <c r="N20">
-        <v>-1</v>
-      </c>
-      <c r="O20">
-        <v>-1</v>
-      </c>
-      <c r="P20">
-        <v>-1</v>
-      </c>
-      <c r="Q20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>78.787878787878782</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.9595959595959593</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.9595959595959593</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="8"/>
-        <v>27.27272727272727</v>
-      </c>
-      <c r="H21">
-        <v>-1</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-      <c r="J21">
-        <v>-1</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="9"/>
-        <v>7.8787878787878789</v>
-      </c>
-      <c r="L21">
-        <v>-1</v>
-      </c>
-      <c r="M21">
-        <v>-1</v>
-      </c>
-      <c r="N21">
-        <v>-1</v>
-      </c>
-      <c r="O21">
-        <v>-1</v>
-      </c>
-      <c r="P21">
-        <v>-1</v>
-      </c>
-      <c r="Q21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>80.303030303030297</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.0101010101010104</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.0101010101010104</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="8"/>
-        <v>28.18181818181818</v>
-      </c>
-      <c r="H22">
-        <v>-1</v>
-      </c>
-      <c r="I22">
-        <v>-1</v>
-      </c>
-      <c r="J22">
-        <v>-1</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="9"/>
-        <v>8.0303030303030312</v>
-      </c>
-      <c r="L22">
-        <v>-1</v>
-      </c>
-      <c r="M22">
-        <v>-1</v>
-      </c>
-      <c r="N22">
-        <v>-1</v>
-      </c>
-      <c r="O22">
-        <v>-1</v>
-      </c>
-      <c r="P22">
-        <v>-1</v>
-      </c>
-      <c r="Q22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>81.818181818181813</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.0606060606060606</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.0606060606060606</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="8"/>
-        <v>29.09090909090909</v>
-      </c>
-      <c r="H23">
-        <v>-1</v>
-      </c>
-      <c r="I23">
-        <v>-1</v>
-      </c>
-      <c r="J23">
-        <v>-1</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="9"/>
-        <v>8.1818181818181817</v>
-      </c>
-      <c r="L23">
-        <v>-1</v>
-      </c>
-      <c r="M23">
-        <v>-1</v>
-      </c>
-      <c r="N23">
-        <v>-1</v>
-      </c>
-      <c r="O23">
-        <v>-1</v>
-      </c>
-      <c r="P23">
-        <v>-1</v>
-      </c>
-      <c r="Q23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>83.333333333333329</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.1111111111111107</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.1111111111111107</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="H24">
-        <v>-1</v>
-      </c>
-      <c r="I24">
-        <v>-1</v>
-      </c>
-      <c r="J24">
-        <v>-1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="9"/>
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="L24">
-        <v>-1</v>
-      </c>
-      <c r="M24">
-        <v>-1</v>
-      </c>
-      <c r="N24">
-        <v>-1</v>
-      </c>
-      <c r="O24">
-        <v>-1</v>
-      </c>
-      <c r="P24">
-        <v>-1</v>
-      </c>
-      <c r="Q24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>84.848484848484844</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.1616161616161618</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.1616161616161618</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="8"/>
-        <v>30.90909090909091</v>
-      </c>
-      <c r="H25">
-        <v>-1</v>
-      </c>
-      <c r="I25">
-        <v>-1</v>
-      </c>
-      <c r="J25">
-        <v>-1</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="9"/>
-        <v>8.4848484848484844</v>
-      </c>
-      <c r="L25">
-        <v>-1</v>
-      </c>
-      <c r="M25">
-        <v>-1</v>
-      </c>
-      <c r="N25">
-        <v>-1</v>
-      </c>
-      <c r="O25">
-        <v>-1</v>
-      </c>
-      <c r="P25">
-        <v>-1</v>
-      </c>
-      <c r="Q25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>86.363636363636374</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.2121212121212119</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.2121212121212119</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="8"/>
-        <v>31.81818181818182</v>
-      </c>
-      <c r="H26">
-        <v>-1</v>
-      </c>
-      <c r="I26">
-        <v>-1</v>
-      </c>
-      <c r="J26">
-        <v>-1</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="9"/>
-        <v>8.6363636363636367</v>
-      </c>
-      <c r="L26">
-        <v>-1</v>
-      </c>
-      <c r="M26">
-        <v>-1</v>
-      </c>
-      <c r="N26">
-        <v>-1</v>
-      </c>
-      <c r="O26">
-        <v>-1</v>
-      </c>
-      <c r="P26">
-        <v>-1</v>
-      </c>
-      <c r="Q26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>87.878787878787875</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.262626262626263</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.262626262626263</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="8"/>
-        <v>32.727272727272734</v>
-      </c>
-      <c r="H27">
-        <v>-1</v>
-      </c>
-      <c r="I27">
-        <v>-1</v>
-      </c>
-      <c r="J27">
-        <v>-1</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="9"/>
-        <v>8.787878787878789</v>
-      </c>
-      <c r="L27">
-        <v>-1</v>
-      </c>
-      <c r="M27">
-        <v>-1</v>
-      </c>
-      <c r="N27">
-        <v>-1</v>
-      </c>
-      <c r="O27">
-        <v>-1</v>
-      </c>
-      <c r="P27">
-        <v>-1</v>
-      </c>
-      <c r="Q27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27.000000000000004</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.000000000000004</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>89.393939393939405</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.3131313131313131</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.3131313131313131</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="8"/>
-        <v>33.63636363636364</v>
-      </c>
-      <c r="H28">
-        <v>-1</v>
-      </c>
-      <c r="I28">
-        <v>-1</v>
-      </c>
-      <c r="J28">
-        <v>-1</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="9"/>
-        <v>8.9393939393939394</v>
-      </c>
-      <c r="L28">
-        <v>-1</v>
-      </c>
-      <c r="M28">
-        <v>-1</v>
-      </c>
-      <c r="N28">
-        <v>-1</v>
-      </c>
-      <c r="O28">
-        <v>-1</v>
-      </c>
-      <c r="P28">
-        <v>-1</v>
-      </c>
-      <c r="Q28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27.999999999999996</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.999999999999996</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>90.909090909090907</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.3636363636363633</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="8"/>
-        <v>34.545454545454547</v>
-      </c>
-      <c r="H29">
-        <v>-1</v>
-      </c>
-      <c r="I29">
-        <v>-1</v>
-      </c>
-      <c r="J29">
-        <v>-1</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="9"/>
-        <v>9.0909090909090899</v>
-      </c>
-      <c r="L29">
-        <v>-1</v>
-      </c>
-      <c r="M29">
-        <v>-1</v>
-      </c>
-      <c r="N29">
-        <v>-1</v>
-      </c>
-      <c r="O29">
-        <v>-1</v>
-      </c>
-      <c r="P29">
-        <v>-1</v>
-      </c>
-      <c r="Q29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>92.424242424242422</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.4141414141414144</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.4141414141414144</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="8"/>
-        <v>35.454545454545453</v>
-      </c>
-      <c r="H30">
-        <v>-1</v>
-      </c>
-      <c r="I30">
-        <v>-1</v>
-      </c>
-      <c r="J30">
-        <v>-1</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="9"/>
-        <v>9.2424242424242422</v>
-      </c>
-      <c r="L30">
-        <v>-1</v>
-      </c>
-      <c r="M30">
-        <v>-1</v>
-      </c>
-      <c r="N30">
-        <v>-1</v>
-      </c>
-      <c r="O30">
-        <v>-1</v>
-      </c>
-      <c r="P30">
-        <v>-1</v>
-      </c>
-      <c r="Q30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>93.939393939393938</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.4646464646464645</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.4646464646464645</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="8"/>
-        <v>36.36363636363636</v>
-      </c>
-      <c r="H31">
-        <v>-1</v>
-      </c>
-      <c r="I31">
-        <v>-1</v>
-      </c>
-      <c r="J31">
-        <v>-1</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="9"/>
-        <v>9.3939393939393945</v>
-      </c>
-      <c r="L31">
-        <v>-1</v>
-      </c>
-      <c r="M31">
-        <v>-1</v>
-      </c>
-      <c r="N31">
-        <v>-1</v>
-      </c>
-      <c r="O31">
-        <v>-1</v>
-      </c>
-      <c r="P31">
-        <v>-1</v>
-      </c>
-      <c r="Q31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>95.454545454545453</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.5151515151515156</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.5151515151515156</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="8"/>
-        <v>37.272727272727273</v>
-      </c>
-      <c r="H32">
-        <v>-1</v>
-      </c>
-      <c r="I32">
-        <v>-1</v>
-      </c>
-      <c r="J32">
-        <v>-1</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="9"/>
-        <v>9.5454545454545467</v>
-      </c>
-      <c r="L32">
-        <v>-1</v>
-      </c>
-      <c r="M32">
-        <v>-1</v>
-      </c>
-      <c r="N32">
-        <v>-1</v>
-      </c>
-      <c r="O32">
-        <v>-1</v>
-      </c>
-      <c r="P32">
-        <v>-1</v>
-      </c>
-      <c r="Q32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>96.969696969696969</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.5656565656565657</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.5656565656565657</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="8"/>
-        <v>38.181818181818187</v>
-      </c>
-      <c r="H33">
-        <v>-1</v>
-      </c>
-      <c r="I33">
-        <v>-1</v>
-      </c>
-      <c r="J33">
-        <v>-1</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="9"/>
-        <v>9.6969696969696972</v>
-      </c>
-      <c r="L33">
-        <v>-1</v>
-      </c>
-      <c r="M33">
-        <v>-1</v>
-      </c>
-      <c r="N33">
-        <v>-1</v>
-      </c>
-      <c r="O33">
-        <v>-1</v>
-      </c>
-      <c r="P33">
-        <v>-1</v>
-      </c>
-      <c r="Q33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>98.484848484848499</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.6161616161616159</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.6161616161616159</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="8"/>
-        <v>39.090909090909093</v>
-      </c>
-      <c r="H34">
-        <v>-1</v>
-      </c>
-      <c r="I34">
-        <v>-1</v>
-      </c>
-      <c r="J34">
-        <v>-1</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="9"/>
-        <v>9.8484848484848477</v>
-      </c>
-      <c r="L34">
-        <v>-1</v>
-      </c>
-      <c r="M34">
-        <v>-1</v>
-      </c>
-      <c r="N34">
-        <v>-1</v>
-      </c>
-      <c r="O34">
-        <v>-1</v>
-      </c>
-      <c r="P34">
-        <v>-1</v>
-      </c>
-      <c r="Q34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="H35">
-        <v>-1</v>
-      </c>
-      <c r="I35">
-        <v>-1</v>
-      </c>
-      <c r="J35">
-        <v>-1</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>-1</v>
-      </c>
-      <c r="M35">
-        <v>-1</v>
-      </c>
-      <c r="N35">
-        <v>-1</v>
-      </c>
-      <c r="O35">
-        <v>-1</v>
-      </c>
-      <c r="P35">
-        <v>-1</v>
-      </c>
-      <c r="Q35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>101.51515151515152</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.7171717171717171</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.7171717171717171</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="8"/>
-        <v>40.909090909090907</v>
-      </c>
-      <c r="H36">
-        <v>-1</v>
-      </c>
-      <c r="I36">
-        <v>-1</v>
-      </c>
-      <c r="J36">
-        <v>-1</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="9"/>
-        <v>10.151515151515152</v>
-      </c>
-      <c r="L36">
-        <v>-1</v>
-      </c>
-      <c r="M36">
-        <v>-1</v>
-      </c>
-      <c r="N36">
-        <v>-1</v>
-      </c>
-      <c r="O36">
-        <v>-1</v>
-      </c>
-      <c r="P36">
-        <v>-1</v>
-      </c>
-      <c r="Q36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>103.03030303030303</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.7676767676767682</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.7676767676767682</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="8"/>
-        <v>41.818181818181813</v>
-      </c>
-      <c r="H37">
-        <v>-1</v>
-      </c>
-      <c r="I37">
-        <v>-1</v>
-      </c>
-      <c r="J37">
-        <v>-1</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="9"/>
-        <v>10.303030303030303</v>
-      </c>
-      <c r="L37">
-        <v>-1</v>
-      </c>
-      <c r="M37">
-        <v>-1</v>
-      </c>
-      <c r="N37">
-        <v>-1</v>
-      </c>
-      <c r="O37">
-        <v>-1</v>
-      </c>
-      <c r="P37">
-        <v>-1</v>
-      </c>
-      <c r="Q37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>104.54545454545455</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.8181818181818183</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.8181818181818183</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="8"/>
-        <v>42.727272727272727</v>
-      </c>
-      <c r="H38">
-        <v>-1</v>
-      </c>
-      <c r="I38">
-        <v>-1</v>
-      </c>
-      <c r="J38">
-        <v>-1</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="9"/>
-        <v>10.454545454545455</v>
-      </c>
-      <c r="L38">
-        <v>-1</v>
-      </c>
-      <c r="M38">
-        <v>-1</v>
-      </c>
-      <c r="N38">
-        <v>-1</v>
-      </c>
-      <c r="O38">
-        <v>-1</v>
-      </c>
-      <c r="P38">
-        <v>-1</v>
-      </c>
-      <c r="Q38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>106.06060606060606</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.8686868686868685</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.8686868686868685</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="8"/>
-        <v>43.63636363636364</v>
-      </c>
-      <c r="H39">
-        <v>-1</v>
-      </c>
-      <c r="I39">
-        <v>-1</v>
-      </c>
-      <c r="J39">
-        <v>-1</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="9"/>
-        <v>10.606060606060606</v>
-      </c>
-      <c r="L39">
-        <v>-1</v>
-      </c>
-      <c r="M39">
-        <v>-1</v>
-      </c>
-      <c r="N39">
-        <v>-1</v>
-      </c>
-      <c r="O39">
-        <v>-1</v>
-      </c>
-      <c r="P39">
-        <v>-1</v>
-      </c>
-      <c r="Q39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>107.57575757575756</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.9191919191919187</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.9191919191919187</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="8"/>
-        <v>44.54545454545454</v>
-      </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
-      <c r="I40">
-        <v>-1</v>
-      </c>
-      <c r="J40">
-        <v>-1</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="9"/>
-        <v>10.757575757575758</v>
-      </c>
-      <c r="L40">
-        <v>-1</v>
-      </c>
-      <c r="M40">
-        <v>-1</v>
-      </c>
-      <c r="N40">
-        <v>-1</v>
-      </c>
-      <c r="O40">
-        <v>-1</v>
-      </c>
-      <c r="P40">
-        <v>-1</v>
-      </c>
-      <c r="Q40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>109.09090909090909</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.9696969696969697</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.9696969696969697</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="8"/>
-        <v>45.454545454545453</v>
-      </c>
-      <c r="H41">
-        <v>-1</v>
-      </c>
-      <c r="I41">
-        <v>-1</v>
-      </c>
-      <c r="J41">
-        <v>-1</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="9"/>
-        <v>10.90909090909091</v>
-      </c>
-      <c r="L41">
-        <v>-1</v>
-      </c>
-      <c r="M41">
-        <v>-1</v>
-      </c>
-      <c r="N41">
-        <v>-1</v>
-      </c>
-      <c r="O41">
-        <v>-1</v>
-      </c>
-      <c r="P41">
-        <v>-1</v>
-      </c>
-      <c r="Q41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>110.60606060606059</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.0202020202020208</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.0202020202020208</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="8"/>
-        <v>46.36363636363636</v>
-      </c>
-      <c r="H42">
-        <v>-1</v>
-      </c>
-      <c r="I42">
-        <v>-1</v>
-      </c>
-      <c r="J42">
-        <v>-1</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="9"/>
-        <v>11.060606060606061</v>
-      </c>
-      <c r="L42">
-        <v>-1</v>
-      </c>
-      <c r="M42">
-        <v>-1</v>
-      </c>
-      <c r="N42">
-        <v>-1</v>
-      </c>
-      <c r="O42">
-        <v>-1</v>
-      </c>
-      <c r="P42">
-        <v>-1</v>
-      </c>
-      <c r="Q42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>112.12121212121212</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.0707070707070709</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.0707070707070709</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="8"/>
-        <v>47.272727272727273</v>
-      </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
-      <c r="I43">
-        <v>-1</v>
-      </c>
-      <c r="J43">
-        <v>-1</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="9"/>
-        <v>11.212121212121211</v>
-      </c>
-      <c r="L43">
-        <v>-1</v>
-      </c>
-      <c r="M43">
-        <v>-1</v>
-      </c>
-      <c r="N43">
-        <v>-1</v>
-      </c>
-      <c r="O43">
-        <v>-1</v>
-      </c>
-      <c r="P43">
-        <v>-1</v>
-      </c>
-      <c r="Q43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>113.63636363636364</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.1212121212121211</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.1212121212121211</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="8"/>
-        <v>48.18181818181818</v>
-      </c>
-      <c r="H44">
-        <v>-1</v>
-      </c>
-      <c r="I44">
-        <v>-1</v>
-      </c>
-      <c r="J44">
-        <v>-1</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="9"/>
-        <v>11.363636363636363</v>
-      </c>
-      <c r="L44">
-        <v>-1</v>
-      </c>
-      <c r="M44">
-        <v>-1</v>
-      </c>
-      <c r="N44">
-        <v>-1</v>
-      </c>
-      <c r="O44">
-        <v>-1</v>
-      </c>
-      <c r="P44">
-        <v>-1</v>
-      </c>
-      <c r="Q44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="C45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>115.15151515151516</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.1717171717171713</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.1717171717171713</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="8"/>
-        <v>49.090909090909093</v>
-      </c>
-      <c r="H45">
-        <v>-1</v>
-      </c>
-      <c r="I45">
-        <v>-1</v>
-      </c>
-      <c r="J45">
-        <v>-1</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="9"/>
-        <v>11.515151515151516</v>
-      </c>
-      <c r="L45">
-        <v>-1</v>
-      </c>
-      <c r="M45">
-        <v>-1</v>
-      </c>
-      <c r="N45">
-        <v>-1</v>
-      </c>
-      <c r="O45">
-        <v>-1</v>
-      </c>
-      <c r="P45">
-        <v>-1</v>
-      </c>
-      <c r="Q45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C77" si="10">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C46:C77" si="7">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
         <v>45</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>116.66666666666666</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.2222222222222223</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.2222222222222223</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="H46">
-        <v>-1</v>
-      </c>
-      <c r="I46">
-        <v>-1</v>
-      </c>
-      <c r="J46">
-        <v>-1</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="9"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="L46">
-        <v>-1</v>
-      </c>
-      <c r="M46">
-        <v>-1</v>
-      </c>
-      <c r="N46">
-        <v>-1</v>
-      </c>
-      <c r="O46">
-        <v>-1</v>
-      </c>
-      <c r="P46">
-        <v>-1</v>
-      </c>
-      <c r="Q46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D100" si="11">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
+        <f t="shared" ref="D47:D100" si="8">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
         <v>118.18181818181817</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.2727272727272725</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.2727272727272725</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="8"/>
-        <v>50.909090909090907</v>
-      </c>
-      <c r="H47">
-        <v>-1</v>
-      </c>
-      <c r="I47">
-        <v>-1</v>
-      </c>
-      <c r="J47">
-        <v>-1</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="9"/>
-        <v>11.818181818181818</v>
-      </c>
-      <c r="L47">
-        <v>-1</v>
-      </c>
-      <c r="M47">
-        <v>-1</v>
-      </c>
-      <c r="N47">
-        <v>-1</v>
-      </c>
-      <c r="O47">
-        <v>-1</v>
-      </c>
-      <c r="P47">
-        <v>-1</v>
-      </c>
-      <c r="Q47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="D48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>119.6969696969697</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.3232323232323235</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.3232323232323235</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="8"/>
-        <v>51.81818181818182</v>
-      </c>
-      <c r="H48">
-        <v>-1</v>
-      </c>
-      <c r="I48">
-        <v>-1</v>
-      </c>
-      <c r="J48">
-        <v>-1</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="9"/>
-        <v>11.969696969696969</v>
-      </c>
-      <c r="L48">
-        <v>-1</v>
-      </c>
-      <c r="M48">
-        <v>-1</v>
-      </c>
-      <c r="N48">
-        <v>-1</v>
-      </c>
-      <c r="O48">
-        <v>-1</v>
-      </c>
-      <c r="P48">
-        <v>-1</v>
-      </c>
-      <c r="Q48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="D49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>121.21212121212122</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.3737373737373737</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.3737373737373737</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="8"/>
-        <v>52.727272727272727</v>
-      </c>
-      <c r="H49">
-        <v>-1</v>
-      </c>
-      <c r="I49">
-        <v>-1</v>
-      </c>
-      <c r="J49">
-        <v>-1</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="9"/>
-        <v>12.121212121212121</v>
-      </c>
-      <c r="L49">
-        <v>-1</v>
-      </c>
-      <c r="M49">
-        <v>-1</v>
-      </c>
-      <c r="N49">
-        <v>-1</v>
-      </c>
-      <c r="O49">
-        <v>-1</v>
-      </c>
-      <c r="P49">
-        <v>-1</v>
-      </c>
-      <c r="Q49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="D50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>122.72727272727273</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.4242424242424239</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.4242424242424239</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="8"/>
-        <v>53.63636363636364</v>
-      </c>
-      <c r="H50">
-        <v>-1</v>
-      </c>
-      <c r="I50">
-        <v>-1</v>
-      </c>
-      <c r="J50">
-        <v>-1</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="9"/>
-        <v>12.272727272727273</v>
-      </c>
-      <c r="L50">
-        <v>-1</v>
-      </c>
-      <c r="M50">
-        <v>-1</v>
-      </c>
-      <c r="N50">
-        <v>-1</v>
-      </c>
-      <c r="O50">
-        <v>-1</v>
-      </c>
-      <c r="P50">
-        <v>-1</v>
-      </c>
-      <c r="Q50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>124.24242424242425</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.4747474747474749</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.4747474747474749</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="8"/>
-        <v>54.545454545454547</v>
-      </c>
-      <c r="H51">
-        <v>-1</v>
-      </c>
-      <c r="I51">
-        <v>-1</v>
-      </c>
-      <c r="J51">
-        <v>-1</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="9"/>
-        <v>12.424242424242426</v>
-      </c>
-      <c r="L51">
-        <v>-1</v>
-      </c>
-      <c r="M51">
-        <v>-1</v>
-      </c>
-      <c r="N51">
-        <v>-1</v>
-      </c>
-      <c r="O51">
-        <v>-1</v>
-      </c>
-      <c r="P51">
-        <v>-1</v>
-      </c>
-      <c r="Q51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="D52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>125.75757575757576</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.525252525252526</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.525252525252526</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="8"/>
-        <v>55.45454545454546</v>
-      </c>
-      <c r="H52">
-        <v>-1</v>
-      </c>
-      <c r="I52">
-        <v>-1</v>
-      </c>
-      <c r="J52">
-        <v>-1</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="9"/>
-        <v>12.575757575757576</v>
-      </c>
-      <c r="L52">
-        <v>-1</v>
-      </c>
-      <c r="M52">
-        <v>-1</v>
-      </c>
-      <c r="N52">
-        <v>-1</v>
-      </c>
-      <c r="O52">
-        <v>-1</v>
-      </c>
-      <c r="P52">
-        <v>-1</v>
-      </c>
-      <c r="Q52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="D53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>127.27272727272727</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.5757575757575761</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.5757575757575761</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="8"/>
-        <v>56.36363636363636</v>
-      </c>
-      <c r="H53">
-        <v>-1</v>
-      </c>
-      <c r="I53">
-        <v>-1</v>
-      </c>
-      <c r="J53">
-        <v>-1</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="9"/>
-        <v>12.727272727272727</v>
-      </c>
-      <c r="L53">
-        <v>-1</v>
-      </c>
-      <c r="M53">
-        <v>-1</v>
-      </c>
-      <c r="N53">
-        <v>-1</v>
-      </c>
-      <c r="O53">
-        <v>-1</v>
-      </c>
-      <c r="P53">
-        <v>-1</v>
-      </c>
-      <c r="Q53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53.000000000000007</v>
       </c>
       <c r="C54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>53.000000000000007</v>
       </c>
       <c r="D54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>128.78787878787881</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.6262626262626263</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.6262626262626263</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="8"/>
-        <v>57.27272727272728</v>
-      </c>
-      <c r="H54">
-        <v>-1</v>
-      </c>
-      <c r="I54">
-        <v>-1</v>
-      </c>
-      <c r="J54">
-        <v>-1</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="9"/>
-        <v>12.878787878787879</v>
-      </c>
-      <c r="L54">
-        <v>-1</v>
-      </c>
-      <c r="M54">
-        <v>-1</v>
-      </c>
-      <c r="N54">
-        <v>-1</v>
-      </c>
-      <c r="O54">
-        <v>-1</v>
-      </c>
-      <c r="P54">
-        <v>-1</v>
-      </c>
-      <c r="Q54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>130.30303030303031</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.6767676767676765</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.6767676767676765</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="8"/>
-        <v>58.18181818181818</v>
-      </c>
-      <c r="H55">
-        <v>-1</v>
-      </c>
-      <c r="I55">
-        <v>-1</v>
-      </c>
-      <c r="J55">
-        <v>-1</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="9"/>
-        <v>13.030303030303031</v>
-      </c>
-      <c r="L55">
-        <v>-1</v>
-      </c>
-      <c r="M55">
-        <v>-1</v>
-      </c>
-      <c r="N55">
-        <v>-1</v>
-      </c>
-      <c r="O55">
-        <v>-1</v>
-      </c>
-      <c r="P55">
-        <v>-1</v>
-      </c>
-      <c r="Q55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.999999999999993</v>
       </c>
       <c r="C56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>54.999999999999993</v>
       </c>
       <c r="D56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>131.81818181818181</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.7272727272727266</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.7272727272727266</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="8"/>
-        <v>59.090909090909086</v>
-      </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
-      <c r="I56">
-        <v>-1</v>
-      </c>
-      <c r="J56">
-        <v>-1</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="9"/>
-        <v>13.181818181818182</v>
-      </c>
-      <c r="L56">
-        <v>-1</v>
-      </c>
-      <c r="M56">
-        <v>-1</v>
-      </c>
-      <c r="N56">
-        <v>-1</v>
-      </c>
-      <c r="O56">
-        <v>-1</v>
-      </c>
-      <c r="P56">
-        <v>-1</v>
-      </c>
-      <c r="Q56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>133.33333333333334</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.7777777777777777</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.7777777777777777</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="H57">
-        <v>-1</v>
-      </c>
-      <c r="I57">
-        <v>-1</v>
-      </c>
-      <c r="J57">
-        <v>-1</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="9"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="L57">
-        <v>-1</v>
-      </c>
-      <c r="M57">
-        <v>-1</v>
-      </c>
-      <c r="N57">
-        <v>-1</v>
-      </c>
-      <c r="O57">
-        <v>-1</v>
-      </c>
-      <c r="P57">
-        <v>-1</v>
-      </c>
-      <c r="Q57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>134.84848484848484</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.8282828282828287</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.8282828282828287</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="8"/>
-        <v>60.909090909090907</v>
-      </c>
-      <c r="H58">
-        <v>-1</v>
-      </c>
-      <c r="I58">
-        <v>-1</v>
-      </c>
-      <c r="J58">
-        <v>-1</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="9"/>
-        <v>13.484848484848484</v>
-      </c>
-      <c r="L58">
-        <v>-1</v>
-      </c>
-      <c r="M58">
-        <v>-1</v>
-      </c>
-      <c r="N58">
-        <v>-1</v>
-      </c>
-      <c r="O58">
-        <v>-1</v>
-      </c>
-      <c r="P58">
-        <v>-1</v>
-      </c>
-      <c r="Q58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58.000000000000007</v>
       </c>
       <c r="C59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>58.000000000000007</v>
       </c>
       <c r="D59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>136.36363636363637</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.8787878787878789</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.8787878787878789</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="8"/>
-        <v>61.81818181818182</v>
-      </c>
-      <c r="H59">
-        <v>-1</v>
-      </c>
-      <c r="I59">
-        <v>-1</v>
-      </c>
-      <c r="J59">
-        <v>-1</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="9"/>
-        <v>13.636363636363637</v>
-      </c>
-      <c r="L59">
-        <v>-1</v>
-      </c>
-      <c r="M59">
-        <v>-1</v>
-      </c>
-      <c r="N59">
-        <v>-1</v>
-      </c>
-      <c r="O59">
-        <v>-1</v>
-      </c>
-      <c r="P59">
-        <v>-1</v>
-      </c>
-      <c r="Q59">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>137.87878787878788</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.9292929292929291</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.9292929292929291</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="8"/>
-        <v>62.727272727272727</v>
-      </c>
-      <c r="H60">
-        <v>-1</v>
-      </c>
-      <c r="I60">
-        <v>-1</v>
-      </c>
-      <c r="J60">
-        <v>-1</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="9"/>
-        <v>13.787878787878787</v>
-      </c>
-      <c r="L60">
-        <v>-1</v>
-      </c>
-      <c r="M60">
-        <v>-1</v>
-      </c>
-      <c r="N60">
-        <v>-1</v>
-      </c>
-      <c r="O60">
-        <v>-1</v>
-      </c>
-      <c r="P60">
-        <v>-1</v>
-      </c>
-      <c r="Q60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59.999999999999993</v>
       </c>
       <c r="C61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>59.999999999999993</v>
       </c>
       <c r="D61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>139.39393939393938</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.9797979797979792</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.9797979797979792</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="8"/>
-        <v>63.636363636363633</v>
-      </c>
-      <c r="H61">
-        <v>-1</v>
-      </c>
-      <c r="I61">
-        <v>-1</v>
-      </c>
-      <c r="J61">
-        <v>-1</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="9"/>
-        <v>13.939393939393939</v>
-      </c>
-      <c r="L61">
-        <v>-1</v>
-      </c>
-      <c r="M61">
-        <v>-1</v>
-      </c>
-      <c r="N61">
-        <v>-1</v>
-      </c>
-      <c r="O61">
-        <v>-1</v>
-      </c>
-      <c r="P61">
-        <v>-1</v>
-      </c>
-      <c r="Q61">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>140.90909090909091</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.0303030303030312</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.0303030303030312</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="8"/>
-        <v>64.545454545454547</v>
-      </c>
-      <c r="H62">
-        <v>-1</v>
-      </c>
-      <c r="I62">
-        <v>-1</v>
-      </c>
-      <c r="J62">
-        <v>-1</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="9"/>
-        <v>14.090909090909092</v>
-      </c>
-      <c r="L62">
-        <v>-1</v>
-      </c>
-      <c r="M62">
-        <v>-1</v>
-      </c>
-      <c r="N62">
-        <v>-1</v>
-      </c>
-      <c r="O62">
-        <v>-1</v>
-      </c>
-      <c r="P62">
-        <v>-1</v>
-      </c>
-      <c r="Q62">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>142.42424242424244</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.0808080808080796</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.0808080808080796</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="8"/>
-        <v>65.454545454545453</v>
-      </c>
-      <c r="H63">
-        <v>-1</v>
-      </c>
-      <c r="I63">
-        <v>-1</v>
-      </c>
-      <c r="J63">
-        <v>-1</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="9"/>
-        <v>14.242424242424242</v>
-      </c>
-      <c r="L63">
-        <v>-1</v>
-      </c>
-      <c r="M63">
-        <v>-1</v>
-      </c>
-      <c r="N63">
-        <v>-1</v>
-      </c>
-      <c r="O63">
-        <v>-1</v>
-      </c>
-      <c r="P63">
-        <v>-1</v>
-      </c>
-      <c r="Q63">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>143.93939393939394</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.1313131313131315</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.1313131313131315</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="8"/>
-        <v>66.363636363636374</v>
-      </c>
-      <c r="H64">
-        <v>-1</v>
-      </c>
-      <c r="I64">
-        <v>-1</v>
-      </c>
-      <c r="J64">
-        <v>-1</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="9"/>
-        <v>14.393939393939394</v>
-      </c>
-      <c r="L64">
-        <v>-1</v>
-      </c>
-      <c r="M64">
-        <v>-1</v>
-      </c>
-      <c r="N64">
-        <v>-1</v>
-      </c>
-      <c r="O64">
-        <v>-1</v>
-      </c>
-      <c r="P64">
-        <v>-1</v>
-      </c>
-      <c r="Q64">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>145.45454545454544</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.1818181818181817</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="8"/>
-        <v>67.27272727272728</v>
-      </c>
-      <c r="H65">
-        <v>-1</v>
-      </c>
-      <c r="I65">
-        <v>-1</v>
-      </c>
-      <c r="J65">
-        <v>-1</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="9"/>
-        <v>14.545454545454545</v>
-      </c>
-      <c r="L65">
-        <v>-1</v>
-      </c>
-      <c r="M65">
-        <v>-1</v>
-      </c>
-      <c r="N65">
-        <v>-1</v>
-      </c>
-      <c r="O65">
-        <v>-1</v>
-      </c>
-      <c r="P65">
-        <v>-1</v>
-      </c>
-      <c r="Q65">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>146.969696969697</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.2323232323232318</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.2323232323232318</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="8"/>
-        <v>68.181818181818187</v>
-      </c>
-      <c r="H66">
-        <v>-1</v>
-      </c>
-      <c r="I66">
-        <v>-1</v>
-      </c>
-      <c r="J66">
-        <v>-1</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="9"/>
-        <v>14.696969696969697</v>
-      </c>
-      <c r="L66">
-        <v>-1</v>
-      </c>
-      <c r="M66">
-        <v>-1</v>
-      </c>
-      <c r="N66">
-        <v>-1</v>
-      </c>
-      <c r="O66">
-        <v>-1</v>
-      </c>
-      <c r="P66">
-        <v>-1</v>
-      </c>
-      <c r="Q66">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>148.4848484848485</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.2828282828282838</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.2828282828282838</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="8"/>
-        <v>69.090909090909093</v>
-      </c>
-      <c r="H67">
-        <v>-1</v>
-      </c>
-      <c r="I67">
-        <v>-1</v>
-      </c>
-      <c r="J67">
-        <v>-1</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="9"/>
-        <v>14.848484848484848</v>
-      </c>
-      <c r="L67">
-        <v>-1</v>
-      </c>
-      <c r="M67">
-        <v>-1</v>
-      </c>
-      <c r="N67">
-        <v>-1</v>
-      </c>
-      <c r="O67">
-        <v>-1</v>
-      </c>
-      <c r="P67">
-        <v>-1</v>
-      </c>
-      <c r="Q67">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B100" si="12">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B68:B100" si="9">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="H68">
-        <v>-1</v>
-      </c>
-      <c r="I68">
-        <v>-1</v>
-      </c>
-      <c r="J68">
-        <v>-1</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="L68">
-        <v>-1</v>
-      </c>
-      <c r="M68">
-        <v>-1</v>
-      </c>
-      <c r="N68">
-        <v>-1</v>
-      </c>
-      <c r="O68">
-        <v>-1</v>
-      </c>
-      <c r="P68">
-        <v>-1</v>
-      </c>
-      <c r="Q68">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="C69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>151.5151515151515</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.3838383838383841</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.3838383838383841</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="8"/>
-        <v>70.909090909090907</v>
-      </c>
-      <c r="H69">
-        <v>-1</v>
-      </c>
-      <c r="I69">
-        <v>-1</v>
-      </c>
-      <c r="J69">
-        <v>-1</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="9"/>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="L69">
-        <v>-1</v>
-      </c>
-      <c r="M69">
-        <v>-1</v>
-      </c>
-      <c r="N69">
-        <v>-1</v>
-      </c>
-      <c r="O69">
-        <v>-1</v>
-      </c>
-      <c r="P69">
-        <v>-1</v>
-      </c>
-      <c r="Q69">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="C70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="D70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>153.03030303030303</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.4343434343434343</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.4343434343434343</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="8"/>
-        <v>71.818181818181813</v>
-      </c>
-      <c r="H70">
-        <v>-1</v>
-      </c>
-      <c r="I70">
-        <v>-1</v>
-      </c>
-      <c r="J70">
-        <v>-1</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="9"/>
-        <v>15.303030303030303</v>
-      </c>
-      <c r="L70">
-        <v>-1</v>
-      </c>
-      <c r="M70">
-        <v>-1</v>
-      </c>
-      <c r="N70">
-        <v>-1</v>
-      </c>
-      <c r="O70">
-        <v>-1</v>
-      </c>
-      <c r="P70">
-        <v>-1</v>
-      </c>
-      <c r="Q70">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="C71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="D71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>154.54545454545456</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.4848484848484844</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="8"/>
-        <v>72.727272727272734</v>
-      </c>
-      <c r="H71">
-        <v>-1</v>
-      </c>
-      <c r="I71">
-        <v>-1</v>
-      </c>
-      <c r="J71">
-        <v>-1</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="9"/>
-        <v>15.454545454545455</v>
-      </c>
-      <c r="L71">
-        <v>-1</v>
-      </c>
-      <c r="M71">
-        <v>-1</v>
-      </c>
-      <c r="N71">
-        <v>-1</v>
-      </c>
-      <c r="O71">
-        <v>-1</v>
-      </c>
-      <c r="P71">
-        <v>-1</v>
-      </c>
-      <c r="Q71">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="C72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="D72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>156.06060606060606</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.5353535353535364</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.5353535353535364</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="8"/>
-        <v>73.636363636363626</v>
-      </c>
-      <c r="H72">
-        <v>-1</v>
-      </c>
-      <c r="I72">
-        <v>-1</v>
-      </c>
-      <c r="J72">
-        <v>-1</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="9"/>
-        <v>15.606060606060606</v>
-      </c>
-      <c r="L72">
-        <v>-1</v>
-      </c>
-      <c r="M72">
-        <v>-1</v>
-      </c>
-      <c r="N72">
-        <v>-1</v>
-      </c>
-      <c r="O72">
-        <v>-1</v>
-      </c>
-      <c r="P72">
-        <v>-1</v>
-      </c>
-      <c r="Q72">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="C73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="D73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>157.57575757575756</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.5858585858585847</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.5858585858585847</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="8"/>
-        <v>74.545454545454547</v>
-      </c>
-      <c r="H73">
-        <v>-1</v>
-      </c>
-      <c r="I73">
-        <v>-1</v>
-      </c>
-      <c r="J73">
-        <v>-1</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="9"/>
-        <v>15.757575757575758</v>
-      </c>
-      <c r="L73">
-        <v>-1</v>
-      </c>
-      <c r="M73">
-        <v>-1</v>
-      </c>
-      <c r="N73">
-        <v>-1</v>
-      </c>
-      <c r="O73">
-        <v>-1</v>
-      </c>
-      <c r="P73">
-        <v>-1</v>
-      </c>
-      <c r="Q73">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="C74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="D74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>159.09090909090909</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.6363636363636367</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.6363636363636367</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="8"/>
-        <v>75.454545454545453</v>
-      </c>
-      <c r="H74">
-        <v>-1</v>
-      </c>
-      <c r="I74">
-        <v>-1</v>
-      </c>
-      <c r="J74">
-        <v>-1</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="9"/>
-        <v>15.90909090909091</v>
-      </c>
-      <c r="L74">
-        <v>-1</v>
-      </c>
-      <c r="M74">
-        <v>-1</v>
-      </c>
-      <c r="N74">
-        <v>-1</v>
-      </c>
-      <c r="O74">
-        <v>-1</v>
-      </c>
-      <c r="P74">
-        <v>-1</v>
-      </c>
-      <c r="Q74">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="C75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="D75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>160.60606060606062</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.6868686868686869</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.6868686868686869</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="8"/>
-        <v>76.36363636363636</v>
-      </c>
-      <c r="H75">
-        <v>-1</v>
-      </c>
-      <c r="I75">
-        <v>-1</v>
-      </c>
-      <c r="J75">
-        <v>-1</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="9"/>
-        <v>16.060606060606062</v>
-      </c>
-      <c r="L75">
-        <v>-1</v>
-      </c>
-      <c r="M75">
-        <v>-1</v>
-      </c>
-      <c r="N75">
-        <v>-1</v>
-      </c>
-      <c r="O75">
-        <v>-1</v>
-      </c>
-      <c r="P75">
-        <v>-1</v>
-      </c>
-      <c r="Q75">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="C76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="D76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>162.12121212121212</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.737373737373737</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.737373737373737</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="8"/>
-        <v>77.27272727272728</v>
-      </c>
-      <c r="H76">
-        <v>-1</v>
-      </c>
-      <c r="I76">
-        <v>-1</v>
-      </c>
-      <c r="J76">
-        <v>-1</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="9"/>
-        <v>16.212121212121211</v>
-      </c>
-      <c r="L76">
-        <v>-1</v>
-      </c>
-      <c r="M76">
-        <v>-1</v>
-      </c>
-      <c r="N76">
-        <v>-1</v>
-      </c>
-      <c r="O76">
-        <v>-1</v>
-      </c>
-      <c r="P76">
-        <v>-1</v>
-      </c>
-      <c r="Q76">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="C77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="D77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>163.63636363636363</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.787878787878789</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.787878787878789</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="8"/>
-        <v>78.181818181818187</v>
-      </c>
-      <c r="H77">
-        <v>-1</v>
-      </c>
-      <c r="I77">
-        <v>-1</v>
-      </c>
-      <c r="J77">
-        <v>-1</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="9"/>
-        <v>16.363636363636363</v>
-      </c>
-      <c r="L77">
-        <v>-1</v>
-      </c>
-      <c r="M77">
-        <v>-1</v>
-      </c>
-      <c r="N77">
-        <v>-1</v>
-      </c>
-      <c r="O77">
-        <v>-1</v>
-      </c>
-      <c r="P77">
-        <v>-1</v>
-      </c>
-      <c r="Q77">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:C100" si="13">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C78:C100" si="10">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
         <v>77</v>
       </c>
       <c r="D78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>165.15151515151513</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.8383838383838373</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.8383838383838373</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="8"/>
-        <v>79.090909090909079</v>
-      </c>
-      <c r="H78">
-        <v>-1</v>
-      </c>
-      <c r="I78">
-        <v>-1</v>
-      </c>
-      <c r="J78">
-        <v>-1</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="9"/>
-        <v>16.515151515151516</v>
-      </c>
-      <c r="L78">
-        <v>-1</v>
-      </c>
-      <c r="M78">
-        <v>-1</v>
-      </c>
-      <c r="N78">
-        <v>-1</v>
-      </c>
-      <c r="O78">
-        <v>-1</v>
-      </c>
-      <c r="P78">
-        <v>-1</v>
-      </c>
-      <c r="Q78">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="C79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="D79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>166.66666666666669</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.8888888888888893</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="H79">
-        <v>-1</v>
-      </c>
-      <c r="I79">
-        <v>-1</v>
-      </c>
-      <c r="J79">
-        <v>-1</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="9"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="L79">
-        <v>-1</v>
-      </c>
-      <c r="M79">
-        <v>-1</v>
-      </c>
-      <c r="N79">
-        <v>-1</v>
-      </c>
-      <c r="O79">
-        <v>-1</v>
-      </c>
-      <c r="P79">
-        <v>-1</v>
-      </c>
-      <c r="Q79">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="C80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="D80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>168.18181818181819</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.9393939393939394</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.9393939393939394</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="8"/>
-        <v>80.909090909090907</v>
-      </c>
-      <c r="H80">
-        <v>-1</v>
-      </c>
-      <c r="I80">
-        <v>-1</v>
-      </c>
-      <c r="J80">
-        <v>-1</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="9"/>
-        <v>16.81818181818182</v>
-      </c>
-      <c r="L80">
-        <v>-1</v>
-      </c>
-      <c r="M80">
-        <v>-1</v>
-      </c>
-      <c r="N80">
-        <v>-1</v>
-      </c>
-      <c r="O80">
-        <v>-1</v>
-      </c>
-      <c r="P80">
-        <v>-1</v>
-      </c>
-      <c r="Q80">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="C81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>169.69696969696969</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.9898989898989896</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.9898989898989896</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="8"/>
-        <v>81.818181818181827</v>
-      </c>
-      <c r="H81">
-        <v>-1</v>
-      </c>
-      <c r="I81">
-        <v>-1</v>
-      </c>
-      <c r="J81">
-        <v>-1</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="9"/>
-        <v>16.969696969696969</v>
-      </c>
-      <c r="L81">
-        <v>-1</v>
-      </c>
-      <c r="M81">
-        <v>-1</v>
-      </c>
-      <c r="N81">
-        <v>-1</v>
-      </c>
-      <c r="O81">
-        <v>-1</v>
-      </c>
-      <c r="P81">
-        <v>-1</v>
-      </c>
-      <c r="Q81">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="C82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="D82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>171.21212121212119</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.0404040404040416</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.0404040404040416</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="8"/>
-        <v>82.72727272727272</v>
-      </c>
-      <c r="H82">
-        <v>-1</v>
-      </c>
-      <c r="I82">
-        <v>-1</v>
-      </c>
-      <c r="J82">
-        <v>-1</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="9"/>
-        <v>17.121212121212121</v>
-      </c>
-      <c r="L82">
-        <v>-1</v>
-      </c>
-      <c r="M82">
-        <v>-1</v>
-      </c>
-      <c r="N82">
-        <v>-1</v>
-      </c>
-      <c r="O82">
-        <v>-1</v>
-      </c>
-      <c r="P82">
-        <v>-1</v>
-      </c>
-      <c r="Q82">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="C83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="D83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>172.72727272727275</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" ref="E83:E100" si="14">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <f t="shared" ref="E83:E100" si="11">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>9.0909090909090899</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" ref="F83:F100" si="15">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <f t="shared" ref="F83:F100" si="12">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
         <v>9.0909090909090899</v>
       </c>
-      <c r="G83">
-        <f t="shared" ref="G83:G100" si="16">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
-        <v>83.63636363636364</v>
-      </c>
-      <c r="H83">
-        <v>-1</v>
-      </c>
-      <c r="I83">
-        <v>-1</v>
-      </c>
-      <c r="J83">
-        <v>-1</v>
-      </c>
-      <c r="K83">
-        <f t="shared" ref="K83:K100" si="17">(K$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
-        <v>17.272727272727273</v>
-      </c>
-      <c r="L83">
-        <v>-1</v>
-      </c>
-      <c r="M83">
-        <v>-1</v>
-      </c>
-      <c r="N83">
-        <v>-1</v>
-      </c>
-      <c r="O83">
-        <v>-1</v>
-      </c>
-      <c r="P83">
-        <v>-1</v>
-      </c>
-      <c r="Q83">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="8"/>
+        <v>174.24242424242425</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1414141414141419</v>
+      </c>
+      <c r="F84" s="5">
         <f t="shared" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="13"/>
-        <v>83</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="11"/>
-        <v>174.24242424242425</v>
-      </c>
-      <c r="E84" s="5">
-        <f t="shared" si="14"/>
         <v>9.1414141414141419</v>
       </c>
-      <c r="F84" s="5">
-        <f t="shared" si="15"/>
-        <v>9.1414141414141419</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="16"/>
-        <v>84.545454545454547</v>
-      </c>
-      <c r="H84">
-        <v>-1</v>
-      </c>
-      <c r="I84">
-        <v>-1</v>
-      </c>
-      <c r="J84">
-        <v>-1</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="17"/>
-        <v>17.424242424242422</v>
-      </c>
-      <c r="L84">
-        <v>-1</v>
-      </c>
-      <c r="M84">
-        <v>-1</v>
-      </c>
-      <c r="N84">
-        <v>-1</v>
-      </c>
-      <c r="O84">
-        <v>-1</v>
-      </c>
-      <c r="P84">
-        <v>-1</v>
-      </c>
-      <c r="Q84">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="8"/>
+        <v>175.75757575757575</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="11"/>
+        <v>9.191919191919192</v>
+      </c>
+      <c r="F85" s="5">
         <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="13"/>
-        <v>84</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="11"/>
-        <v>175.75757575757575</v>
-      </c>
-      <c r="E85" s="5">
-        <f t="shared" si="14"/>
         <v>9.191919191919192</v>
       </c>
-      <c r="F85" s="5">
-        <f t="shared" si="15"/>
-        <v>9.191919191919192</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="16"/>
-        <v>85.454545454545453</v>
-      </c>
-      <c r="H85">
-        <v>-1</v>
-      </c>
-      <c r="I85">
-        <v>-1</v>
-      </c>
-      <c r="J85">
-        <v>-1</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="17"/>
-        <v>17.575757575757574</v>
-      </c>
-      <c r="L85">
-        <v>-1</v>
-      </c>
-      <c r="M85">
-        <v>-1</v>
-      </c>
-      <c r="N85">
-        <v>-1</v>
-      </c>
-      <c r="O85">
-        <v>-1</v>
-      </c>
-      <c r="P85">
-        <v>-1</v>
-      </c>
-      <c r="Q85">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="8"/>
+        <v>177.27272727272728</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="11"/>
+        <v>9.2424242424242422</v>
+      </c>
+      <c r="F86" s="5">
         <f t="shared" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="11"/>
-        <v>177.27272727272728</v>
-      </c>
-      <c r="E86" s="5">
-        <f t="shared" si="14"/>
         <v>9.2424242424242422</v>
       </c>
-      <c r="F86" s="5">
-        <f t="shared" si="15"/>
-        <v>9.2424242424242422</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="16"/>
-        <v>86.36363636363636</v>
-      </c>
-      <c r="H86">
-        <v>-1</v>
-      </c>
-      <c r="I86">
-        <v>-1</v>
-      </c>
-      <c r="J86">
-        <v>-1</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="17"/>
-        <v>17.727272727272727</v>
-      </c>
-      <c r="L86">
-        <v>-1</v>
-      </c>
-      <c r="M86">
-        <v>-1</v>
-      </c>
-      <c r="N86">
-        <v>-1</v>
-      </c>
-      <c r="O86">
-        <v>-1</v>
-      </c>
-      <c r="P86">
-        <v>-1</v>
-      </c>
-      <c r="Q86">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="8"/>
+        <v>178.78787878787878</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="11"/>
+        <v>9.2929292929292924</v>
+      </c>
+      <c r="F87" s="5">
         <f t="shared" si="12"/>
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="13"/>
-        <v>86</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="11"/>
-        <v>178.78787878787878</v>
-      </c>
-      <c r="E87" s="5">
-        <f t="shared" si="14"/>
         <v>9.2929292929292924</v>
       </c>
-      <c r="F87" s="5">
-        <f t="shared" si="15"/>
-        <v>9.2929292929292924</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="16"/>
-        <v>87.272727272727266</v>
-      </c>
-      <c r="H87">
-        <v>-1</v>
-      </c>
-      <c r="I87">
-        <v>-1</v>
-      </c>
-      <c r="J87">
-        <v>-1</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="17"/>
-        <v>17.878787878787879</v>
-      </c>
-      <c r="L87">
-        <v>-1</v>
-      </c>
-      <c r="M87">
-        <v>-1</v>
-      </c>
-      <c r="N87">
-        <v>-1</v>
-      </c>
-      <c r="O87">
-        <v>-1</v>
-      </c>
-      <c r="P87">
-        <v>-1</v>
-      </c>
-      <c r="Q87">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="8"/>
+        <v>180.30303030303031</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3434343434343425</v>
+      </c>
+      <c r="F88" s="5">
         <f t="shared" si="12"/>
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="13"/>
-        <v>87</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="11"/>
-        <v>180.30303030303031</v>
-      </c>
-      <c r="E88" s="5">
-        <f t="shared" si="14"/>
         <v>9.3434343434343425</v>
       </c>
-      <c r="F88" s="5">
-        <f t="shared" si="15"/>
-        <v>9.3434343434343425</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="16"/>
-        <v>88.181818181818187</v>
-      </c>
-      <c r="H88">
-        <v>-1</v>
-      </c>
-      <c r="I88">
-        <v>-1</v>
-      </c>
-      <c r="J88">
-        <v>-1</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="17"/>
-        <v>18.030303030303031</v>
-      </c>
-      <c r="L88">
-        <v>-1</v>
-      </c>
-      <c r="M88">
-        <v>-1</v>
-      </c>
-      <c r="N88">
-        <v>-1</v>
-      </c>
-      <c r="O88">
-        <v>-1</v>
-      </c>
-      <c r="P88">
-        <v>-1</v>
-      </c>
-      <c r="Q88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="8"/>
+        <v>181.81818181818181</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3939393939393945</v>
+      </c>
+      <c r="F89" s="5">
         <f t="shared" si="12"/>
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="13"/>
-        <v>88</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="11"/>
-        <v>181.81818181818181</v>
-      </c>
-      <c r="E89" s="5">
-        <f t="shared" si="14"/>
         <v>9.3939393939393945</v>
       </c>
-      <c r="F89" s="5">
-        <f t="shared" si="15"/>
-        <v>9.3939393939393945</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="16"/>
-        <v>89.090909090909093</v>
-      </c>
-      <c r="H89">
-        <v>-1</v>
-      </c>
-      <c r="I89">
-        <v>-1</v>
-      </c>
-      <c r="J89">
-        <v>-1</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="17"/>
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L89">
-        <v>-1</v>
-      </c>
-      <c r="M89">
-        <v>-1</v>
-      </c>
-      <c r="N89">
-        <v>-1</v>
-      </c>
-      <c r="O89">
-        <v>-1</v>
-      </c>
-      <c r="P89">
-        <v>-1</v>
-      </c>
-      <c r="Q89">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="8"/>
+        <v>183.33333333333331</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="11"/>
+        <v>9.4444444444444446</v>
+      </c>
+      <c r="F90" s="5">
         <f t="shared" si="12"/>
-        <v>89</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="11"/>
-        <v>183.33333333333331</v>
-      </c>
-      <c r="E90" s="5">
-        <f t="shared" si="14"/>
         <v>9.4444444444444446</v>
       </c>
-      <c r="F90" s="5">
-        <f t="shared" si="15"/>
-        <v>9.4444444444444446</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="16"/>
-        <v>90</v>
-      </c>
-      <c r="H90">
-        <v>-1</v>
-      </c>
-      <c r="I90">
-        <v>-1</v>
-      </c>
-      <c r="J90">
-        <v>-1</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="17"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="L90">
-        <v>-1</v>
-      </c>
-      <c r="M90">
-        <v>-1</v>
-      </c>
-      <c r="N90">
-        <v>-1</v>
-      </c>
-      <c r="O90">
-        <v>-1</v>
-      </c>
-      <c r="P90">
-        <v>-1</v>
-      </c>
-      <c r="Q90">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="8"/>
+        <v>184.84848484848484</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="11"/>
+        <v>9.4949494949494948</v>
+      </c>
+      <c r="F91" s="5">
         <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="11"/>
-        <v>184.84848484848484</v>
-      </c>
-      <c r="E91" s="5">
-        <f t="shared" si="14"/>
         <v>9.4949494949494948</v>
       </c>
-      <c r="F91" s="5">
-        <f t="shared" si="15"/>
-        <v>9.4949494949494948</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="16"/>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="H91">
-        <v>-1</v>
-      </c>
-      <c r="I91">
-        <v>-1</v>
-      </c>
-      <c r="J91">
-        <v>-1</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="17"/>
-        <v>18.484848484848484</v>
-      </c>
-      <c r="L91">
-        <v>-1</v>
-      </c>
-      <c r="M91">
-        <v>-1</v>
-      </c>
-      <c r="N91">
-        <v>-1</v>
-      </c>
-      <c r="O91">
-        <v>-1</v>
-      </c>
-      <c r="P91">
-        <v>-1</v>
-      </c>
-      <c r="Q91">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="8"/>
+        <v>186.36363636363635</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="11"/>
+        <v>9.545454545454545</v>
+      </c>
+      <c r="F92" s="5">
         <f t="shared" si="12"/>
-        <v>91</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="11"/>
-        <v>186.36363636363635</v>
-      </c>
-      <c r="E92" s="5">
-        <f t="shared" si="14"/>
         <v>9.545454545454545</v>
       </c>
-      <c r="F92" s="5">
-        <f t="shared" si="15"/>
-        <v>9.545454545454545</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="16"/>
-        <v>91.818181818181813</v>
-      </c>
-      <c r="H92">
-        <v>-1</v>
-      </c>
-      <c r="I92">
-        <v>-1</v>
-      </c>
-      <c r="J92">
-        <v>-1</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="17"/>
-        <v>18.636363636363637</v>
-      </c>
-      <c r="L92">
-        <v>-1</v>
-      </c>
-      <c r="M92">
-        <v>-1</v>
-      </c>
-      <c r="N92">
-        <v>-1</v>
-      </c>
-      <c r="O92">
-        <v>-1</v>
-      </c>
-      <c r="P92">
-        <v>-1</v>
-      </c>
-      <c r="Q92">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="8"/>
+        <v>187.87878787878788</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="11"/>
+        <v>9.5959595959595951</v>
+      </c>
+      <c r="F93" s="5">
         <f t="shared" si="12"/>
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="13"/>
-        <v>92</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="11"/>
-        <v>187.87878787878788</v>
-      </c>
-      <c r="E93" s="5">
-        <f t="shared" si="14"/>
         <v>9.5959595959595951</v>
       </c>
-      <c r="F93" s="5">
-        <f t="shared" si="15"/>
-        <v>9.5959595959595951</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="16"/>
-        <v>92.727272727272734</v>
-      </c>
-      <c r="H93">
-        <v>-1</v>
-      </c>
-      <c r="I93">
-        <v>-1</v>
-      </c>
-      <c r="J93">
-        <v>-1</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="17"/>
-        <v>18.787878787878789</v>
-      </c>
-      <c r="L93">
-        <v>-1</v>
-      </c>
-      <c r="M93">
-        <v>-1</v>
-      </c>
-      <c r="N93">
-        <v>-1</v>
-      </c>
-      <c r="O93">
-        <v>-1</v>
-      </c>
-      <c r="P93">
-        <v>-1</v>
-      </c>
-      <c r="Q93">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="8"/>
+        <v>189.39393939393941</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="11"/>
+        <v>9.6464646464646471</v>
+      </c>
+      <c r="F94" s="5">
         <f t="shared" si="12"/>
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="11"/>
-        <v>189.39393939393941</v>
-      </c>
-      <c r="E94" s="5">
-        <f t="shared" si="14"/>
         <v>9.6464646464646471</v>
       </c>
-      <c r="F94" s="5">
-        <f t="shared" si="15"/>
-        <v>9.6464646464646471</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="16"/>
-        <v>93.63636363636364</v>
-      </c>
-      <c r="H94">
-        <v>-1</v>
-      </c>
-      <c r="I94">
-        <v>-1</v>
-      </c>
-      <c r="J94">
-        <v>-1</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="17"/>
-        <v>18.939393939393938</v>
-      </c>
-      <c r="L94">
-        <v>-1</v>
-      </c>
-      <c r="M94">
-        <v>-1</v>
-      </c>
-      <c r="N94">
-        <v>-1</v>
-      </c>
-      <c r="O94">
-        <v>-1</v>
-      </c>
-      <c r="P94">
-        <v>-1</v>
-      </c>
-      <c r="Q94">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>190.90909090909091</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="11"/>
+        <v>9.6969696969696972</v>
+      </c>
+      <c r="F95" s="5">
         <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="13"/>
-        <v>94</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="11"/>
-        <v>190.90909090909091</v>
-      </c>
-      <c r="E95" s="5">
-        <f t="shared" si="14"/>
         <v>9.6969696969696972</v>
       </c>
-      <c r="F95" s="5">
-        <f t="shared" si="15"/>
-        <v>9.6969696969696972</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="16"/>
-        <v>94.545454545454547</v>
-      </c>
-      <c r="H95">
-        <v>-1</v>
-      </c>
-      <c r="I95">
-        <v>-1</v>
-      </c>
-      <c r="J95">
-        <v>-1</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="17"/>
-        <v>19.090909090909093</v>
-      </c>
-      <c r="L95">
-        <v>-1</v>
-      </c>
-      <c r="M95">
-        <v>-1</v>
-      </c>
-      <c r="N95">
-        <v>-1</v>
-      </c>
-      <c r="O95">
-        <v>-1</v>
-      </c>
-      <c r="P95">
-        <v>-1</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="8"/>
+        <v>192.42424242424244</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7474747474747474</v>
+      </c>
+      <c r="F96" s="5">
         <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="13"/>
-        <v>95</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="11"/>
-        <v>192.42424242424244</v>
-      </c>
-      <c r="E96" s="5">
-        <f t="shared" si="14"/>
         <v>9.7474747474747474</v>
       </c>
-      <c r="F96" s="5">
-        <f t="shared" si="15"/>
-        <v>9.7474747474747474</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="16"/>
-        <v>95.454545454545453</v>
-      </c>
-      <c r="H96">
-        <v>-1</v>
-      </c>
-      <c r="I96">
-        <v>-1</v>
-      </c>
-      <c r="J96">
-        <v>-1</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="17"/>
-        <v>19.242424242424242</v>
-      </c>
-      <c r="L96">
-        <v>-1</v>
-      </c>
-      <c r="M96">
-        <v>-1</v>
-      </c>
-      <c r="N96">
-        <v>-1</v>
-      </c>
-      <c r="O96">
-        <v>-1</v>
-      </c>
-      <c r="P96">
-        <v>-1</v>
-      </c>
-      <c r="Q96">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="8"/>
+        <v>193.93939393939394</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7979797979797976</v>
+      </c>
+      <c r="F97" s="5">
         <f t="shared" si="12"/>
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="13"/>
-        <v>96</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="11"/>
-        <v>193.93939393939394</v>
-      </c>
-      <c r="E97" s="5">
-        <f t="shared" si="14"/>
         <v>9.7979797979797976</v>
       </c>
-      <c r="F97" s="5">
-        <f t="shared" si="15"/>
-        <v>9.7979797979797976</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="16"/>
-        <v>96.36363636363636</v>
-      </c>
-      <c r="H97">
-        <v>-1</v>
-      </c>
-      <c r="I97">
-        <v>-1</v>
-      </c>
-      <c r="J97">
-        <v>-1</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="17"/>
-        <v>19.393939393939391</v>
-      </c>
-      <c r="L97">
-        <v>-1</v>
-      </c>
-      <c r="M97">
-        <v>-1</v>
-      </c>
-      <c r="N97">
-        <v>-1</v>
-      </c>
-      <c r="O97">
-        <v>-1</v>
-      </c>
-      <c r="P97">
-        <v>-1</v>
-      </c>
-      <c r="Q97">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="8"/>
+        <v>195.45454545454547</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8484848484848477</v>
+      </c>
+      <c r="F98" s="5">
         <f t="shared" si="12"/>
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="13"/>
-        <v>97</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="11"/>
-        <v>195.45454545454547</v>
-      </c>
-      <c r="E98" s="5">
-        <f t="shared" si="14"/>
         <v>9.8484848484848477</v>
       </c>
-      <c r="F98" s="5">
-        <f t="shared" si="15"/>
-        <v>9.8484848484848477</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="16"/>
-        <v>97.27272727272728</v>
-      </c>
-      <c r="H98">
-        <v>-1</v>
-      </c>
-      <c r="I98">
-        <v>-1</v>
-      </c>
-      <c r="J98">
-        <v>-1</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="17"/>
-        <v>19.545454545454547</v>
-      </c>
-      <c r="L98">
-        <v>-1</v>
-      </c>
-      <c r="M98">
-        <v>-1</v>
-      </c>
-      <c r="N98">
-        <v>-1</v>
-      </c>
-      <c r="O98">
-        <v>-1</v>
-      </c>
-      <c r="P98">
-        <v>-1</v>
-      </c>
-      <c r="Q98">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="8"/>
+        <v>196.96969696969697</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8989898989898997</v>
+      </c>
+      <c r="F99" s="5">
         <f t="shared" si="12"/>
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="13"/>
-        <v>98</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="11"/>
-        <v>196.96969696969697</v>
-      </c>
-      <c r="E99" s="5">
-        <f t="shared" si="14"/>
         <v>9.8989898989898997</v>
       </c>
-      <c r="F99" s="5">
-        <f t="shared" si="15"/>
-        <v>9.8989898989898997</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="16"/>
-        <v>98.181818181818187</v>
-      </c>
-      <c r="H99">
-        <v>-1</v>
-      </c>
-      <c r="I99">
-        <v>-1</v>
-      </c>
-      <c r="J99">
-        <v>-1</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="17"/>
-        <v>19.696969696969695</v>
-      </c>
-      <c r="L99">
-        <v>-1</v>
-      </c>
-      <c r="M99">
-        <v>-1</v>
-      </c>
-      <c r="N99">
-        <v>-1</v>
-      </c>
-      <c r="O99">
-        <v>-1</v>
-      </c>
-      <c r="P99">
-        <v>-1</v>
-      </c>
-      <c r="Q99">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="8"/>
+        <v>198.4848484848485</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9494949494949498</v>
+      </c>
+      <c r="F100" s="5">
         <f t="shared" si="12"/>
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="13"/>
-        <v>99</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="11"/>
-        <v>198.4848484848485</v>
-      </c>
-      <c r="E100" s="5">
-        <f t="shared" si="14"/>
         <v>9.9494949494949498</v>
       </c>
-      <c r="F100" s="5">
-        <f t="shared" si="15"/>
-        <v>9.9494949494949498</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="16"/>
-        <v>99.090909090909093</v>
-      </c>
-      <c r="H100">
-        <v>-1</v>
-      </c>
-      <c r="I100">
-        <v>-1</v>
-      </c>
-      <c r="J100">
-        <v>-1</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="17"/>
-        <v>19.848484848484851</v>
-      </c>
-      <c r="L100">
-        <v>-1</v>
-      </c>
-      <c r="M100">
-        <v>-1</v>
-      </c>
-      <c r="N100">
-        <v>-1</v>
-      </c>
-      <c r="O100">
-        <v>-1</v>
-      </c>
-      <c r="P100">
-        <v>-1</v>
-      </c>
-      <c r="Q100">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7000,39 +3501,6 @@
       </c>
       <c r="F101" s="1">
         <v>10</v>
-      </c>
-      <c r="G101" s="1">
-        <v>100</v>
-      </c>
-      <c r="H101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K101" s="1">
-        <v>20</v>
-      </c>
-      <c r="L101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q101" s="1">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE87B5-FD0B-4A99-8D69-DB1525175D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E1CCB-BE3A-4A08-B0C2-5C1C97EA2E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,7 +982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E1CCB-BE3A-4A08-B0C2-5C1C97EA2E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AAD5F2-4A67-4E29-B1B9-591B2318D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2124" windowWidth="21312" windowHeight="22608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -982,7 +982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>51.515151515151516</v>
+        <v>52.525252525252526</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>5.0505050505050502</v>
+        <v>2.5757575757575757</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>53.030303030303031</v>
+        <v>55.050505050505052</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>5.1010101010101012</v>
+        <v>2.6515151515151514</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>54.545454545454547</v>
+        <v>57.575757575757578</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>5.1515151515151514</v>
+        <v>2.7272727272727275</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>56.060606060606062</v>
+        <v>60.101010101010104</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>5.2020202020202024</v>
+        <v>2.8030303030303032</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>57.575757575757578</v>
+        <v>62.62626262626263</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>5.2525252525252526</v>
+        <v>2.8787878787878789</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>59.090909090909093</v>
+        <v>65.151515151515156</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>5.3030303030303028</v>
+        <v>2.9545454545454546</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>60.606060606060609</v>
+        <v>67.676767676767668</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>5.3535353535353538</v>
+        <v>3.0303030303030303</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>62.121212121212125</v>
+        <v>70.202020202020208</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>5.404040404040404</v>
+        <v>3.106060606060606</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>63.63636363636364</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>5.454545454545455</v>
+        <v>3.1818181818181817</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>65.151515151515156</v>
+        <v>75.25252525252526</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>5.5050505050505052</v>
+        <v>3.2575757575757578</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>5.5555555555555554</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>68.181818181818187</v>
+        <v>80.303030303030312</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>5.6060606060606064</v>
+        <v>3.4090909090909092</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>69.696969696969703</v>
+        <v>82.828282828282823</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>5.6565656565656566</v>
+        <v>3.4848484848484849</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>71.212121212121218</v>
+        <v>85.353535353535349</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>5.7070707070707067</v>
+        <v>3.5606060606060606</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>72.72727272727272</v>
+        <v>87.878787878787875</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>5.7575757575757578</v>
+        <v>3.6363636363636367</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>74.242424242424249</v>
+        <v>90.404040404040416</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>5.808080808080808</v>
+        <v>3.7121212121212119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>75.757575757575751</v>
+        <v>92.929292929292927</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" ref="F19:F82" si="6">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
-        <v>5.8585858585858581</v>
+        <v>3.7878787878787881</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>77.27272727272728</v>
+        <v>95.454545454545453</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="5"/>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="6"/>
-        <v>5.9090909090909092</v>
+        <v>3.8636363636363638</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="4"/>
-        <v>78.787878787878782</v>
+        <v>97.979797979797979</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="5"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="6"/>
-        <v>5.9595959595959593</v>
+        <v>3.9393939393939394</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>80.303030303030297</v>
+        <v>100.50505050505051</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="5"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="6"/>
-        <v>6.0101010101010104</v>
+        <v>4.0151515151515156</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
-        <v>81.818181818181813</v>
+        <v>103.03030303030303</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="5"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="6"/>
-        <v>6.0606060606060606</v>
+        <v>4.0909090909090908</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>83.333333333333329</v>
+        <v>105.55555555555554</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="5"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F24" s="5">
         <f t="shared" si="6"/>
-        <v>6.1111111111111107</v>
+        <v>4.1666666666666661</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>84.848484848484844</v>
+        <v>108.08080808080808</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="5"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" si="6"/>
-        <v>6.1616161616161618</v>
+        <v>4.2424242424242422</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>86.363636363636374</v>
+        <v>110.60606060606061</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="5"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="6"/>
-        <v>6.2121212121212119</v>
+        <v>4.3181818181818183</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>87.878787878787875</v>
+        <v>113.13131313131314</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="5"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="6"/>
-        <v>6.262626262626263</v>
+        <v>4.3939393939393945</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>89.393939393939405</v>
+        <v>115.65656565656566</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="5"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="6"/>
-        <v>6.3131313131313131</v>
+        <v>4.4696969696969697</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>90.909090909090907</v>
+        <v>118.18181818181817</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="5"/>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="6"/>
-        <v>6.3636363636363633</v>
+        <v>4.545454545454545</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>92.424242424242422</v>
+        <v>120.7070707070707</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="5"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" si="6"/>
-        <v>6.4141414141414144</v>
+        <v>4.6212121212121211</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>93.939393939393938</v>
+        <v>123.23232323232324</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="5"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" si="6"/>
-        <v>6.4646464646464645</v>
+        <v>4.6969696969696972</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>95.454545454545453</v>
+        <v>125.75757575757576</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="5"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" si="6"/>
-        <v>6.5151515151515156</v>
+        <v>4.7727272727272734</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>96.969696969696969</v>
+        <v>128.28282828282829</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="5"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" si="6"/>
-        <v>6.5656565656565657</v>
+        <v>4.8484848484848486</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
-        <v>98.484848484848499</v>
+        <v>130.80808080808083</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="5"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F34" s="5">
         <f t="shared" si="6"/>
-        <v>6.6161616161616159</v>
+        <v>4.9242424242424239</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="5"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="F35" s="5">
         <f t="shared" si="6"/>
-        <v>6.6666666666666661</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>101.51515151515152</v>
+        <v>135.85858585858585</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="5"/>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="F36" s="5">
         <f t="shared" si="6"/>
-        <v>6.7171717171717171</v>
+        <v>5.0757575757575761</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>103.03030303030303</v>
+        <v>138.38383838383839</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="5"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F37" s="5">
         <f t="shared" si="6"/>
-        <v>6.7676767676767682</v>
+        <v>5.1515151515151514</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>104.54545454545455</v>
+        <v>140.90909090909091</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="5"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="6"/>
-        <v>6.8181818181818183</v>
+        <v>5.2272727272727275</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>106.06060606060606</v>
+        <v>143.43434343434342</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="5"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F39" s="5">
         <f t="shared" si="6"/>
-        <v>6.8686868686868685</v>
+        <v>5.3030303030303028</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>107.57575757575756</v>
+        <v>145.95959595959596</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="5"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="F40" s="5">
         <f t="shared" si="6"/>
-        <v>6.9191919191919187</v>
+        <v>5.3787878787878789</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>109.09090909090909</v>
+        <v>148.4848484848485</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="5"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F41" s="5">
         <f t="shared" si="6"/>
-        <v>6.9696969696969697</v>
+        <v>5.454545454545455</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>110.60606060606059</v>
+        <v>151.01010101010101</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="5"/>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F42" s="5">
         <f t="shared" si="6"/>
-        <v>7.0202020202020208</v>
+        <v>5.5303030303030303</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>112.12121212121212</v>
+        <v>153.53535353535352</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="5"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F43" s="5">
         <f t="shared" si="6"/>
-        <v>7.0707070707070709</v>
+        <v>5.6060606060606055</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>113.63636363636364</v>
+        <v>156.06060606060606</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="5"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F44" s="5">
         <f t="shared" si="6"/>
-        <v>7.1212121212121211</v>
+        <v>5.6818181818181817</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>115.15151515151516</v>
+        <v>158.5858585858586</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="5"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F45" s="5">
         <f t="shared" si="6"/>
-        <v>7.1717171717171713</v>
+        <v>5.7575757575757578</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>116.66666666666666</v>
+        <v>161.11111111111109</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="5"/>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="F46" s="5">
         <f t="shared" si="6"/>
-        <v>7.2222222222222223</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D47">
         <f t="shared" ref="D47:D100" si="8">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
-        <v>118.18181818181817</v>
+        <v>163.63636363636363</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="5"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="F47" s="5">
         <f t="shared" si="6"/>
-        <v>7.2727272727272725</v>
+        <v>5.9090909090909092</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="8"/>
-        <v>119.6969696969697</v>
+        <v>166.16161616161617</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="5"/>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="F48" s="5">
         <f t="shared" si="6"/>
-        <v>7.3232323232323235</v>
+        <v>5.9848484848484844</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="8"/>
-        <v>121.21212121212122</v>
+        <v>168.68686868686871</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="5"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F49" s="5">
         <f t="shared" si="6"/>
-        <v>7.3737373737373737</v>
+        <v>6.0606060606060606</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="8"/>
-        <v>122.72727272727273</v>
+        <v>171.21212121212122</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="5"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F50" s="5">
         <f t="shared" si="6"/>
-        <v>7.4242424242424239</v>
+        <v>6.1363636363636367</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="8"/>
-        <v>124.24242424242425</v>
+        <v>173.73737373737373</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="5"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F51" s="5">
         <f t="shared" si="6"/>
-        <v>7.4747474747474749</v>
+        <v>6.2121212121212128</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="8"/>
-        <v>125.75757575757576</v>
+        <v>176.26262626262627</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="5"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="F52" s="5">
         <f t="shared" si="6"/>
-        <v>7.525252525252526</v>
+        <v>6.2878787878787881</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="8"/>
-        <v>127.27272727272727</v>
+        <v>178.78787878787878</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="5"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F53" s="5">
         <f t="shared" si="6"/>
-        <v>7.5757575757575761</v>
+        <v>6.3636363636363633</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="8"/>
-        <v>128.78787878787881</v>
+        <v>181.31313131313132</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="5"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F54" s="5">
         <f t="shared" si="6"/>
-        <v>7.6262626262626263</v>
+        <v>6.4393939393939394</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="8"/>
-        <v>130.30303030303031</v>
+        <v>183.83838383838383</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="5"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F55" s="5">
         <f t="shared" si="6"/>
-        <v>7.6767676767676765</v>
+        <v>6.5151515151515156</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="8"/>
-        <v>131.81818181818181</v>
+        <v>186.36363636363635</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="5"/>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F56" s="5">
         <f t="shared" si="6"/>
-        <v>7.7272727272727266</v>
+        <v>6.5909090909090908</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="8"/>
-        <v>133.33333333333334</v>
+        <v>188.88888888888889</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="5"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F57" s="5">
         <f t="shared" si="6"/>
-        <v>7.7777777777777777</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="8"/>
-        <v>134.84848484848484</v>
+        <v>191.4141414141414</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="5"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="F58" s="5">
         <f t="shared" si="6"/>
-        <v>7.8282828282828287</v>
+        <v>6.7424242424242422</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="8"/>
-        <v>136.36363636363637</v>
+        <v>193.93939393939394</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="5"/>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="F59" s="5">
         <f t="shared" si="6"/>
-        <v>7.8787878787878789</v>
+        <v>6.8181818181818183</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="8"/>
-        <v>137.87878787878788</v>
+        <v>196.46464646464648</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="5"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="F60" s="5">
         <f t="shared" si="6"/>
-        <v>7.9292929292929291</v>
+        <v>6.8939393939393936</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="8"/>
-        <v>139.39393939393938</v>
+        <v>198.98989898989899</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="5"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F61" s="5">
         <f t="shared" si="6"/>
-        <v>7.9797979797979792</v>
+        <v>6.9696969696969697</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="8"/>
-        <v>140.90909090909091</v>
+        <v>201.51515151515153</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="5"/>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="F62" s="5">
         <f t="shared" si="6"/>
-        <v>8.0303030303030312</v>
+        <v>7.0454545454545459</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="8"/>
-        <v>142.42424242424244</v>
+        <v>204.04040404040404</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="5"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F63" s="5">
         <f t="shared" si="6"/>
-        <v>8.0808080808080796</v>
+        <v>7.1212121212121211</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="8"/>
-        <v>143.93939393939394</v>
+        <v>206.56565656565658</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="5"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F64" s="5">
         <f t="shared" si="6"/>
-        <v>8.1313131313131315</v>
+        <v>7.1969696969696972</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="8"/>
-        <v>145.45454545454544</v>
+        <v>209.09090909090909</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="5"/>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F65" s="5">
         <f t="shared" si="6"/>
-        <v>8.1818181818181817</v>
+        <v>7.2727272727272725</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="8"/>
-        <v>146.969696969697</v>
+        <v>211.61616161616163</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="5"/>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="F66" s="5">
         <f t="shared" si="6"/>
-        <v>8.2323232323232318</v>
+        <v>7.3484848484848486</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="8"/>
-        <v>148.4848484848485</v>
+        <v>214.14141414141415</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="5"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="F67" s="5">
         <f t="shared" si="6"/>
-        <v>8.2828282828282838</v>
+        <v>7.4242424242424239</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>216.66666666666666</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="5"/>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F68" s="5">
         <f t="shared" si="6"/>
-        <v>8.3333333333333321</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="8"/>
-        <v>151.5151515151515</v>
+        <v>219.1919191919192</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="5"/>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="F69" s="5">
         <f t="shared" si="6"/>
-        <v>8.3838383838383841</v>
+        <v>7.5757575757575761</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="8"/>
-        <v>153.03030303030303</v>
+        <v>221.71717171717171</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="5"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F70" s="5">
         <f t="shared" si="6"/>
-        <v>8.4343434343434343</v>
+        <v>7.6515151515151514</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="8"/>
-        <v>154.54545454545456</v>
+        <v>224.24242424242425</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="5"/>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F71" s="5">
         <f t="shared" si="6"/>
-        <v>8.4848484848484844</v>
+        <v>7.7272727272727275</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="8"/>
-        <v>156.06060606060606</v>
+        <v>226.76767676767676</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="5"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F72" s="5">
         <f t="shared" si="6"/>
-        <v>8.5353535353535364</v>
+        <v>7.8030303030303028</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="8"/>
-        <v>157.57575757575756</v>
+        <v>229.29292929292927</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="5"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F73" s="5">
         <f t="shared" si="6"/>
-        <v>8.5858585858585847</v>
+        <v>7.8787878787878789</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>159.09090909090909</v>
+        <v>231.81818181818181</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="5"/>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="F74" s="5">
         <f t="shared" si="6"/>
-        <v>8.6363636363636367</v>
+        <v>7.954545454545455</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>160.60606060606062</v>
+        <v>234.34343434343432</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="5"/>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F75" s="5">
         <f t="shared" si="6"/>
-        <v>8.6868686868686869</v>
+        <v>8.0303030303030312</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>162.12121212121212</v>
+        <v>236.86868686868686</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="5"/>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="F76" s="5">
         <f t="shared" si="6"/>
-        <v>8.737373737373737</v>
+        <v>8.1060606060606055</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>163.63636363636363</v>
+        <v>239.39393939393941</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="5"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F77" s="5">
         <f t="shared" si="6"/>
-        <v>8.787878787878789</v>
+        <v>8.1818181818181817</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>165.15151515151513</v>
+        <v>241.91919191919192</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="5"/>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="F78" s="5">
         <f t="shared" si="6"/>
-        <v>8.8383838383838373</v>
+        <v>8.2575757575757578</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>166.66666666666669</v>
+        <v>244.44444444444446</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="5"/>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="F79" s="5">
         <f t="shared" si="6"/>
-        <v>8.8888888888888893</v>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>168.18181818181819</v>
+        <v>246.96969696969697</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="5"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F80" s="5">
         <f t="shared" si="6"/>
-        <v>8.9393939393939394</v>
+        <v>8.4090909090909101</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>169.69696969696969</v>
+        <v>249.49494949494951</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="5"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F81" s="5">
         <f t="shared" si="6"/>
-        <v>8.9898989898989896</v>
+        <v>8.4848484848484844</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="8"/>
-        <v>171.21212121212119</v>
+        <v>252.02020202020202</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="5"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F82" s="5">
         <f t="shared" si="6"/>
-        <v>9.0404040404040416</v>
+        <v>8.5606060606060606</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="8"/>
-        <v>172.72727272727275</v>
+        <v>254.54545454545456</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" ref="E83:E100" si="11">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="F83" s="5">
         <f t="shared" ref="F83:F100" si="12">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
-        <v>9.0909090909090899</v>
+        <v>8.6363636363636367</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="8"/>
-        <v>174.24242424242425</v>
+        <v>257.07070707070704</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="11"/>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="F84" s="5">
         <f t="shared" si="12"/>
-        <v>9.1414141414141419</v>
+        <v>8.712121212121211</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="8"/>
-        <v>175.75757575757575</v>
+        <v>259.59595959595958</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="11"/>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F85" s="5">
         <f t="shared" si="12"/>
-        <v>9.191919191919192</v>
+        <v>8.7878787878787872</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="8"/>
-        <v>177.27272727272728</v>
+        <v>262.12121212121212</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="11"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F86" s="5">
         <f t="shared" si="12"/>
-        <v>9.2424242424242422</v>
+        <v>8.8636363636363633</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="8"/>
-        <v>178.78787878787878</v>
+        <v>264.64646464646466</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="11"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="F87" s="5">
         <f t="shared" si="12"/>
-        <v>9.2929292929292924</v>
+        <v>8.9393939393939394</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="8"/>
-        <v>180.30303030303031</v>
+        <v>267.17171717171721</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="11"/>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="F88" s="5">
         <f t="shared" si="12"/>
-        <v>9.3434343434343425</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="8"/>
-        <v>181.81818181818181</v>
+        <v>269.69696969696969</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="11"/>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="F89" s="5">
         <f t="shared" si="12"/>
-        <v>9.3939393939393945</v>
+        <v>9.0909090909090899</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="8"/>
-        <v>183.33333333333331</v>
+        <v>272.22222222222217</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="11"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="F90" s="5">
         <f t="shared" si="12"/>
-        <v>9.4444444444444446</v>
+        <v>9.1666666666666661</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="8"/>
-        <v>184.84848484848484</v>
+        <v>274.74747474747471</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="11"/>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="F91" s="5">
         <f t="shared" si="12"/>
-        <v>9.4949494949494948</v>
+        <v>9.2424242424242422</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="8"/>
-        <v>186.36363636363635</v>
+        <v>277.27272727272725</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="11"/>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="F92" s="5">
         <f t="shared" si="12"/>
-        <v>9.545454545454545</v>
+        <v>9.3181818181818183</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="8"/>
-        <v>187.87878787878788</v>
+        <v>279.79797979797979</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="11"/>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F93" s="5">
         <f t="shared" si="12"/>
-        <v>9.5959595959595951</v>
+        <v>9.3939393939393945</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="8"/>
-        <v>189.39393939393941</v>
+        <v>282.32323232323233</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="11"/>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F94" s="5">
         <f t="shared" si="12"/>
-        <v>9.6464646464646471</v>
+        <v>9.4696969696969688</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="8"/>
-        <v>190.90909090909091</v>
+        <v>284.84848484848487</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="11"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F95" s="5">
         <f t="shared" si="12"/>
-        <v>9.6969696969696972</v>
+        <v>9.5454545454545467</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="8"/>
-        <v>192.42424242424244</v>
+        <v>287.37373737373741</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="11"/>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="F96" s="5">
         <f t="shared" si="12"/>
-        <v>9.7474747474747474</v>
+        <v>9.6212121212121211</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="8"/>
-        <v>193.93939393939394</v>
+        <v>289.8989898989899</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="11"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F97" s="5">
         <f t="shared" si="12"/>
-        <v>9.7979797979797976</v>
+        <v>9.6969696969696955</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="8"/>
-        <v>195.45454545454547</v>
+        <v>292.42424242424244</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="11"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="F98" s="5">
         <f t="shared" si="12"/>
-        <v>9.8484848484848477</v>
+        <v>9.7727272727272734</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="8"/>
-        <v>196.96969696969697</v>
+        <v>294.94949494949492</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="11"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="F99" s="5">
         <f t="shared" si="12"/>
-        <v>9.8989898989898997</v>
+        <v>9.8484848484848477</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="8"/>
-        <v>198.4848484848485</v>
+        <v>297.47474747474746</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" si="11"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="F100" s="5">
         <f t="shared" si="12"/>
-        <v>9.9494949494949498</v>
+        <v>9.9242424242424256</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3494,7 +3494,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E101" s="1">
         <v>10</v>

--- a/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/PlayerStatsSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AAD5F2-4A67-4E29-B1B9-591B2318D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66E4D80-2D0C-455C-9745-8E399C1897C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2124" windowWidth="21312" windowHeight="22608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105750" yWindow="2955" windowWidth="26955" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -982,18 +982,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>52.525252525252526</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
@@ -1058,7 +1058,7 @@
         <v>2.5757575757575757</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>55.050505050505052</v>
+        <v>59.090909090909093</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
@@ -1083,7 +1083,7 @@
         <v>2.6515151515151514</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>57.575757575757578</v>
+        <v>63.63636363636364</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -1108,7 +1108,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>60.101010101010104</v>
+        <v>68.181818181818187</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
@@ -1133,7 +1133,7 @@
         <v>2.8030303030303032</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>62.62626262626263</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
@@ -1158,7 +1158,7 @@
         <v>2.8787878787878789</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>65.151515151515156</v>
+        <v>77.27272727272728</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
@@ -1183,7 +1183,7 @@
         <v>2.9545454545454546</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>67.676767676767668</v>
+        <v>81.818181818181813</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
@@ -1208,7 +1208,7 @@
         <v>3.0303030303030303</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>70.202020202020208</v>
+        <v>86.363636363636374</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
@@ -1233,7 +1233,7 @@
         <v>3.106060606060606</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>72.72727272727272</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
@@ -1258,7 +1258,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>75.25252525252526</v>
+        <v>95.454545454545453</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
@@ -1283,7 +1283,7 @@
         <v>3.2575757575757578</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>77.777777777777771</v>
+        <v>100</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
@@ -1308,7 +1308,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>80.303030303030312</v>
+        <v>104.54545454545455</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
@@ -1333,7 +1333,7 @@
         <v>3.4090909090909092</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>82.828282828282823</v>
+        <v>109.09090909090909</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
@@ -1358,7 +1358,7 @@
         <v>3.4848484848484849</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>85.353535353535349</v>
+        <v>113.63636363636363</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
@@ -1383,7 +1383,7 @@
         <v>3.5606060606060606</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>87.878787878787875</v>
+        <v>118.18181818181819</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
@@ -1408,7 +1408,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>90.404040404040416</v>
+        <v>122.72727272727273</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
@@ -1433,7 +1433,7 @@
         <v>3.7121212121212119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>92.929292929292927</v>
+        <v>127.27272727272727</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
@@ -1458,7 +1458,7 @@
         <v>3.7878787878787881</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>95.454545454545453</v>
+        <v>131.81818181818181</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="5"/>
@@ -1483,7 +1483,7 @@
         <v>3.8636363636363638</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="4"/>
-        <v>97.979797979797979</v>
+        <v>136.36363636363637</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="5"/>
@@ -1508,7 +1508,7 @@
         <v>3.9393939393939394</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>100.50505050505051</v>
+        <v>140.90909090909091</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="5"/>
@@ -1533,7 +1533,7 @@
         <v>4.0151515151515156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
-        <v>103.03030303030303</v>
+        <v>145.45454545454544</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="5"/>
@@ -1558,7 +1558,7 @@
         <v>4.0909090909090908</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>105.55555555555554</v>
+        <v>150</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="5"/>
@@ -1583,7 +1583,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>108.08080808080808</v>
+        <v>154.54545454545456</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="5"/>
@@ -1608,7 +1608,7 @@
         <v>4.2424242424242422</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>110.60606060606061</v>
+        <v>159.09090909090909</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="5"/>
@@ -1633,7 +1633,7 @@
         <v>4.3181818181818183</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>113.13131313131314</v>
+        <v>163.63636363636363</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="5"/>
@@ -1658,7 +1658,7 @@
         <v>4.3939393939393945</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>115.65656565656566</v>
+        <v>168.18181818181819</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="5"/>
@@ -1683,7 +1683,7 @@
         <v>4.4696969696969697</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>118.18181818181817</v>
+        <v>172.72727272727272</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="5"/>
@@ -1708,7 +1708,7 @@
         <v>4.545454545454545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>120.7070707070707</v>
+        <v>177.27272727272725</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="5"/>
@@ -1733,7 +1733,7 @@
         <v>4.6212121212121211</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>123.23232323232324</v>
+        <v>181.81818181818181</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="5"/>
@@ -1758,7 +1758,7 @@
         <v>4.6969696969696972</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>125.75757575757576</v>
+        <v>186.36363636363637</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="5"/>
@@ -1783,7 +1783,7 @@
         <v>4.7727272727272734</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>128.28282828282829</v>
+        <v>190.90909090909091</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="5"/>
@@ -1808,7 +1808,7 @@
         <v>4.8484848484848486</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
-        <v>130.80808080808083</v>
+        <v>195.45454545454547</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="5"/>
@@ -1833,7 +1833,7 @@
         <v>4.9242424242424239</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>133.33333333333331</v>
+        <v>200</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="5"/>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>135.85858585858585</v>
+        <v>204.54545454545453</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="5"/>
@@ -1883,7 +1883,7 @@
         <v>5.0757575757575761</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>138.38383838383839</v>
+        <v>209.09090909090909</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="5"/>
@@ -1908,7 +1908,7 @@
         <v>5.1515151515151514</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>140.90909090909091</v>
+        <v>213.63636363636365</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="5"/>
@@ -1933,7 +1933,7 @@
         <v>5.2272727272727275</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>143.43434343434342</v>
+        <v>218.18181818181819</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="5"/>
@@ -1958,7 +1958,7 @@
         <v>5.3030303030303028</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>145.95959595959596</v>
+        <v>222.72727272727272</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="5"/>
@@ -1983,7 +1983,7 @@
         <v>5.3787878787878789</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>148.4848484848485</v>
+        <v>227.27272727272725</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="5"/>
@@ -2008,7 +2008,7 @@
         <v>5.454545454545455</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>151.01010101010101</v>
+        <v>231.81818181818181</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="5"/>
@@ -2033,7 +2033,7 @@
         <v>5.5303030303030303</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>153.53535353535352</v>
+        <v>236.36363636363637</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="5"/>
@@ -2058,7 +2058,7 @@
         <v>5.6060606060606055</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>156.06060606060606</v>
+        <v>240.90909090909091</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="5"/>
@@ -2083,7 +2083,7 @@
         <v>5.6818181818181817</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>158.5858585858586</v>
+        <v>245.45454545454547</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="5"/>
@@ -2108,7 +2108,7 @@
         <v>5.7575757575757578</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>161.11111111111109</v>
+        <v>250</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="5"/>
@@ -2133,7 +2133,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D47">
         <f t="shared" ref="D47:D100" si="8">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
-        <v>163.63636363636363</v>
+        <v>254.54545454545453</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="5"/>
@@ -2158,7 +2158,7 @@
         <v>5.9090909090909092</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="8"/>
-        <v>166.16161616161617</v>
+        <v>259.09090909090912</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="5"/>
@@ -2183,7 +2183,7 @@
         <v>5.9848484848484844</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="8"/>
-        <v>168.68686868686871</v>
+        <v>263.63636363636363</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="5"/>
@@ -2208,7 +2208,7 @@
         <v>6.0606060606060606</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="8"/>
-        <v>171.21212121212122</v>
+        <v>268.18181818181819</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="5"/>
@@ -2233,7 +2233,7 @@
         <v>6.1363636363636367</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="8"/>
-        <v>173.73737373737373</v>
+        <v>272.72727272727275</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="5"/>
@@ -2258,7 +2258,7 @@
         <v>6.2121212121212128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="8"/>
-        <v>176.26262626262627</v>
+        <v>277.27272727272725</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="5"/>
@@ -2283,7 +2283,7 @@
         <v>6.2878787878787881</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="8"/>
-        <v>178.78787878787878</v>
+        <v>281.81818181818181</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="5"/>
@@ -2308,7 +2308,7 @@
         <v>6.3636363636363633</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="8"/>
-        <v>181.31313131313132</v>
+        <v>286.36363636363637</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="5"/>
@@ -2333,7 +2333,7 @@
         <v>6.4393939393939394</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="8"/>
-        <v>183.83838383838383</v>
+        <v>290.90909090909088</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="5"/>
@@ -2358,7 +2358,7 @@
         <v>6.5151515151515156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="8"/>
-        <v>186.36363636363635</v>
+        <v>295.45454545454544</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="5"/>
@@ -2383,7 +2383,7 @@
         <v>6.5909090909090908</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="8"/>
-        <v>188.88888888888889</v>
+        <v>300</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="5"/>
@@ -2408,7 +2408,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="8"/>
-        <v>191.4141414141414</v>
+        <v>304.5454545454545</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="5"/>
@@ -2433,7 +2433,7 @@
         <v>6.7424242424242422</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="8"/>
-        <v>193.93939393939394</v>
+        <v>309.09090909090912</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="5"/>
@@ -2458,7 +2458,7 @@
         <v>6.8181818181818183</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="8"/>
-        <v>196.46464646464648</v>
+        <v>313.63636363636363</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="5"/>
@@ -2483,7 +2483,7 @@
         <v>6.8939393939393936</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="8"/>
-        <v>198.98989898989899</v>
+        <v>318.18181818181819</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="5"/>
@@ -2508,7 +2508,7 @@
         <v>6.9696969696969697</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="8"/>
-        <v>201.51515151515153</v>
+        <v>322.72727272727275</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="5"/>
@@ -2533,7 +2533,7 @@
         <v>7.0454545454545459</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="8"/>
-        <v>204.04040404040404</v>
+        <v>327.27272727272725</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="5"/>
@@ -2558,7 +2558,7 @@
         <v>7.1212121212121211</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="8"/>
-        <v>206.56565656565658</v>
+        <v>331.81818181818181</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="5"/>
@@ -2583,7 +2583,7 @@
         <v>7.1969696969696972</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="8"/>
-        <v>209.09090909090909</v>
+        <v>336.36363636363637</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="5"/>
@@ -2608,7 +2608,7 @@
         <v>7.2727272727272725</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="8"/>
-        <v>211.61616161616163</v>
+        <v>340.90909090909093</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="5"/>
@@ -2633,7 +2633,7 @@
         <v>7.3484848484848486</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="8"/>
-        <v>214.14141414141415</v>
+        <v>345.45454545454544</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="5"/>
@@ -2658,7 +2658,7 @@
         <v>7.4242424242424239</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="8"/>
-        <v>216.66666666666666</v>
+        <v>350</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="5"/>
@@ -2683,7 +2683,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="8"/>
-        <v>219.1919191919192</v>
+        <v>354.54545454545456</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="5"/>
@@ -2708,7 +2708,7 @@
         <v>7.5757575757575761</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="8"/>
-        <v>221.71717171717171</v>
+        <v>359.09090909090907</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="5"/>
@@ -2733,7 +2733,7 @@
         <v>7.6515151515151514</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="8"/>
-        <v>224.24242424242425</v>
+        <v>363.63636363636368</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="5"/>
@@ -2758,7 +2758,7 @@
         <v>7.7272727272727275</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="8"/>
-        <v>226.76767676767676</v>
+        <v>368.18181818181819</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="5"/>
@@ -2783,7 +2783,7 @@
         <v>7.8030303030303028</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="8"/>
-        <v>229.29292929292927</v>
+        <v>372.72727272727269</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="5"/>
@@ -2808,7 +2808,7 @@
         <v>7.8787878787878789</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>231.81818181818181</v>
+        <v>377.27272727272731</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="5"/>
@@ -2833,7 +2833,7 @@
         <v>7.954545454545455</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>234.34343434343432</v>
+        <v>381.81818181818181</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="5"/>
@@ -2858,7 +2858,7 @@
         <v>8.0303030303030312</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>236.86868686868686</v>
+        <v>386.36363636363637</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="5"/>
@@ -2883,7 +2883,7 @@
         <v>8.1060606060606055</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>239.39393939393941</v>
+        <v>390.90909090909088</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="5"/>
@@ -2908,7 +2908,7 @@
         <v>8.1818181818181817</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>241.91919191919192</v>
+        <v>395.45454545454544</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="5"/>
@@ -2933,7 +2933,7 @@
         <v>8.2575757575757578</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>244.44444444444446</v>
+        <v>400</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="5"/>
@@ -2958,7 +2958,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>246.96969696969697</v>
+        <v>404.5454545454545</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="5"/>
@@ -2983,7 +2983,7 @@
         <v>8.4090909090909101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>249.49494949494951</v>
+        <v>409.09090909090912</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="5"/>
@@ -3008,7 +3008,7 @@
         <v>8.4848484848484844</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="8"/>
-        <v>252.02020202020202</v>
+        <v>413.63636363636363</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="5"/>
@@ -3033,7 +3033,7 @@
         <v>8.5606060606060606</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="8"/>
-        <v>254.54545454545456</v>
+        <v>418.18181818181819</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" ref="E83:E100" si="11">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
@@ -3058,7 +3058,7 @@
         <v>8.6363636363636367</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="8"/>
-        <v>257.07070707070704</v>
+        <v>422.72727272727275</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="11"/>
@@ -3083,7 +3083,7 @@
         <v>8.712121212121211</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="8"/>
-        <v>259.59595959595958</v>
+        <v>427.27272727272725</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="11"/>
@@ -3108,7 +3108,7 @@
         <v>8.7878787878787872</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="8"/>
-        <v>262.12121212121212</v>
+        <v>431.81818181818181</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="11"/>
@@ -3133,7 +3133,7 @@
         <v>8.8636363636363633</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="8"/>
-        <v>264.64646464646466</v>
+        <v>436.36363636363637</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="11"/>
@@ -3158,7 +3158,7 @@
         <v>8.9393939393939394</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="8"/>
-        <v>267.17171717171721</v>
+        <v>440.90909090909093</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="11"/>
@@ -3183,7 +3183,7 @@
         <v>9.0151515151515156</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="8"/>
-        <v>269.69696969696969</v>
+        <v>445.45454545454544</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="11"/>
@@ -3208,7 +3208,7 @@
         <v>9.0909090909090899</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="8"/>
-        <v>272.22222222222217</v>
+        <v>450</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="11"/>
@@ -3233,7 +3233,7 @@
         <v>9.1666666666666661</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="8"/>
-        <v>274.74747474747471</v>
+        <v>454.54545454545456</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="11"/>
@@ -3258,7 +3258,7 @@
         <v>9.2424242424242422</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="8"/>
-        <v>277.27272727272725</v>
+        <v>459.09090909090907</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="11"/>
@@ -3283,7 +3283,7 @@
         <v>9.3181818181818183</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="8"/>
-        <v>279.79797979797979</v>
+        <v>463.63636363636363</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="11"/>
@@ -3308,7 +3308,7 @@
         <v>9.3939393939393945</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="8"/>
-        <v>282.32323232323233</v>
+        <v>468.18181818181819</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="11"/>
@@ -3333,7 +3333,7 @@
         <v>9.4696969696969688</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="8"/>
-        <v>284.84848484848487</v>
+        <v>472.72727272727275</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="11"/>
@@ -3358,7 +3358,7 @@
         <v>9.5454545454545467</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="8"/>
-        <v>287.37373737373741</v>
+        <v>477.27272727272725</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="11"/>
@@ -3383,7 +3383,7 @@
         <v>9.6212121212121211</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="8"/>
-        <v>289.8989898989899</v>
+        <v>481.81818181818181</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="11"/>
@@ -3408,7 +3408,7 @@
         <v>9.6969696969696955</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="8"/>
-        <v>292.42424242424244</v>
+        <v>486.36363636363637</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="11"/>
@@ -3433,7 +3433,7 @@
         <v>9.7727272727272734</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="8"/>
-        <v>294.94949494949492</v>
+        <v>490.90909090909088</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="11"/>
@@ -3458,7 +3458,7 @@
         <v>9.8484848484848477</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="8"/>
-        <v>297.47474747474746</v>
+        <v>495.4545454545455</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" si="11"/>
@@ -3483,7 +3483,7 @@
         <v>9.9242424242424256</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E101" s="1">
         <v>10</v>
@@ -3517,15 +3517,15 @@
       <selection activeCell="B4" sqref="B4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>3.0101010101010104</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>5.0202020202020208</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>7.0303030303030303</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>9.0404040404040416</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>11.05050505050505</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>13.060606060606061</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>15.070707070707071</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>17.080808080808083</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>19.09090909090909</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>21.1010101010101</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>23.111111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>25.121212121212121</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>27.131313131313135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>29.141414141414142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>31.151515151515152</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>33.161616161616166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>35.171717171717169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>37.18181818181818</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>39.19191919191919</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>41.202020202020201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>43.212121212121211</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>45.222222222222221</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>47.232323232323232</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>49.242424242424242</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>51.252525252525253</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>53.26262626262627</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>55.272727272727266</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>57.282828282828284</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>59.292929292929294</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>61.303030303030305</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>63.313131313131315</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>65.323232323232332</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>69.343434343434339</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>71.353535353535349</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>73.36363636363636</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>75.373737373737384</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>77.383838383838381</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>79.393939393939391</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>81.404040404040401</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>83.414141414141412</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>85.424242424242422</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>87.434343434343432</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>89.444444444444443</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>91.454545454545453</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>93.464646464646464</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>95.474747474747474</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>97.484848484848484</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>99.494949494949495</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>101.50505050505051</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>103.51515151515152</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>105.52525252525254</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>107.53535353535354</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>109.54545454545453</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>111.55555555555556</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>113.56565656565657</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>115.57575757575758</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>117.58585858585859</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>119.59595959595958</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>121.60606060606061</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>123.61616161616161</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>125.62626262626263</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>127.63636363636364</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>129.64646464646466</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>131.65656565656565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>133.66666666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>135.6767676767677</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>137.68686868686868</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>139.69696969696972</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>141.7070707070707</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>143.71717171717171</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>145.72727272727272</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>147.73737373737373</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>149.74747474747477</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>151.75757575757575</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>153.76767676767676</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>155.77777777777777</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>157.78787878787878</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>159.79797979797979</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>161.8080808080808</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>163.81818181818184</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>165.82828282828282</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>167.83838383838383</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>169.84848484848484</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>171.85858585858585</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>173.86868686868686</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>175.87878787878788</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>177.88888888888889</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>179.8989898989899</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>181.90909090909091</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>183.91919191919192</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>185.92929292929293</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>187.93939393939394</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>189.94949494949495</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>191.95959595959596</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>193.96969696969697</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>195.97979797979798</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>197.98989898989899</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -5714,14 +5714,14 @@
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>3.0101010101010104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>5.0202020202020208</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>7.0303030303030303</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>9.0404040404040416</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>11.05050505050505</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>13.060606060606061</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>15.070707070707071</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>17.080808080808083</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>19.09090909090909</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>21.1010101010101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>23.111111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>25.121212121212121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>27.131313131313135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>29.141414141414142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>31.151515151515152</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>33.161616161616166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>35.171717171717169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>37.18181818181818</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>39.19191919191919</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>41.202020202020201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>43.212121212121211</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>45.222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>47.232323232323232</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>49.242424242424242</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>51.252525252525253</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>53.26262626262627</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>55.272727272727266</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>57.282828282828284</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>59.292929292929294</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>61.303030303030305</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>63.313131313131315</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>65.323232323232332</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>69.343434343434339</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>71.353535353535349</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>73.36363636363636</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>75.373737373737384</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>77.383838383838381</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>79.393939393939391</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>81.404040404040401</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>83.414141414141412</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>85.424242424242422</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>87.434343434343432</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>89.444444444444443</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>91.454545454545453</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>93.464646464646464</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>95.474747474747474</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>97.484848484848484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>99.494949494949495</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>101.50505050505051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>103.51515151515152</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>105.52525252525254</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>107.53535353535354</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>109.54545454545453</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>111.55555555555556</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>113.56565656565657</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>115.57575757575758</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>117.58585858585859</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>119.59595959595958</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>121.60606060606061</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>123.61616161616161</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>125.62626262626263</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>127.63636363636364</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>129.64646464646466</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>131.65656565656565</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>133.66666666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>135.6767676767677</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>137.68686868686868</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>139.69696969696972</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>141.7070707070707</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>143.71717171717171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>145.72727272727272</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>147.73737373737373</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>149.74747474747477</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>151.75757575757575</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>153.76767676767676</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>155.77777777777777</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>157.78787878787878</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>159.79797979797979</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>161.8080808080808</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>163.81818181818184</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>165.82828282828282</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>167.83838383838383</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>169.84848484848484</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>171.85858585858585</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>173.86868686868686</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>175.87878787878788</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>177.88888888888889</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>179.8989898989899</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>181.90909090909091</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>183.91919191919192</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>185.92929292929293</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>187.93939393939394</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>189.94949494949495</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>191.95959595959596</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>193.96969696969697</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>195.97979797979798</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>197.98989898989899</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -7429,12 +7429,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>47.999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>46.000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>42.999999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>41.000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
